--- a/ISTDB/Resources/timetable.xlsx
+++ b/ISTDB/Resources/timetable.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Brendan.Walker/Projects/ISTDB/ISTDB/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F40927B-E696-6346-B671-BAA68481C4E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00FA5E3-9184-DA4F-82EE-AA510528E537}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="4" r:id="rId1"/>
     <sheet name="2" sheetId="6" r:id="rId2"/>
     <sheet name="3" sheetId="7" r:id="rId3"/>
-    <sheet name="4" sheetId="8" r:id="rId4"/>
+    <sheet name="0" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="35">
   <si>
     <t>Session</t>
   </si>
@@ -39,12 +39,102 @@
   <si>
     <t>User ID</t>
   </si>
+  <si>
+    <t>Allison Navarro</t>
+  </si>
+  <si>
+    <t>GaW</t>
+  </si>
+  <si>
+    <t>NUR.J0</t>
+  </si>
+  <si>
+    <t>S17</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>HaA</t>
+  </si>
+  <si>
+    <t>MAT.Y</t>
+  </si>
+  <si>
+    <t>S18</t>
+  </si>
+  <si>
+    <t>PRe</t>
+  </si>
+  <si>
+    <t>HUM.J</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>WhJ</t>
+  </si>
+  <si>
+    <t>.LS</t>
+  </si>
+  <si>
+    <t>PGD</t>
+  </si>
+  <si>
+    <t>HWa</t>
+  </si>
+  <si>
+    <t>SCI.J</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>JoL</t>
+  </si>
+  <si>
+    <t>BoD</t>
+  </si>
+  <si>
+    <t>IS.E1</t>
+  </si>
+  <si>
+    <t>S23</t>
+  </si>
+  <si>
+    <t>CJa</t>
+  </si>
+  <si>
+    <t>PD.J</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>.E2</t>
+  </si>
+  <si>
+    <t>S22</t>
+  </si>
+  <si>
+    <t>Coo</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>MoB</t>
+  </si>
+  <si>
+    <t>SPO.SB</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -72,6 +162,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="6">
@@ -154,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -193,6 +288,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,7 +679,7 @@
   <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView zoomScale="134" workbookViewId="0">
-      <selection sqref="A1:E81"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -830,7 +926,7 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1">
-        <f t="shared" si="0"/>
+        <f>B24+1</f>
         <v>24</v>
       </c>
       <c r="C25" s="1"/>
@@ -2901,11 +2997,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0730A3FC-C6CA-B14F-9960-F5E00466E064}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
@@ -2918,230 +3017,424 @@
         <v>1</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
+      <c r="A2" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="14"/>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
+      <c r="A3" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B3" s="8">
         <v>2</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="15"/>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
+      <c r="A4" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B4" s="6">
         <v>3</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="14"/>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
+      <c r="A5" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B5" s="8">
         <v>4</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="15"/>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
+      <c r="A6" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B6" s="6">
         <v>5</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="14"/>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
+      <c r="A7" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B7" s="8">
         <v>6</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="15"/>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
+      <c r="A8" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B8" s="6">
         <v>7</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="14"/>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
+      <c r="A9" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B9" s="8">
         <v>8</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="16"/>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
+      <c r="A10" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B10" s="6">
         <v>9</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="14"/>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
+      <c r="A11" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B11" s="8">
         <v>10</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="15"/>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
+      <c r="A12" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B12" s="6">
         <v>11</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="14"/>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
+      <c r="A13" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B13" s="8">
         <v>12</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="15"/>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
+      <c r="A14" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B14" s="6">
         <v>13</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="14"/>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
+      <c r="A15" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B15" s="8">
         <v>14</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="15"/>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
+      <c r="A16" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B16" s="6">
         <v>15</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="19"/>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
+      <c r="A17" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B17" s="8">
         <v>16</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="16"/>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
+      <c r="A18" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B18" s="6">
         <v>17</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="14"/>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
+      <c r="A19" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B19" s="8">
         <v>18</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="15"/>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
+      <c r="A20" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B20" s="6">
         <v>19</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="14"/>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
+      <c r="A21" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B21" s="8">
         <v>20</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="15"/>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
+      <c r="A22" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B22" s="6">
         <v>21</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="14"/>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
+      <c r="A23" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B23" s="8">
         <v>22</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="15"/>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
+      <c r="A24" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B24" s="6">
         <v>23</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="14"/>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
+      <c r="A25" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B25" s="8">
         <v>24</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="15"/>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
+      <c r="A26" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B26" s="6">
         <v>25</v>
       </c>
@@ -3150,7 +3443,9 @@
       <c r="E26" s="14"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
+      <c r="A27" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B27" s="8">
         <v>26</v>
       </c>
@@ -3159,7 +3454,9 @@
       <c r="E27" s="15"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
+      <c r="A28" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B28" s="6">
         <v>27</v>
       </c>
@@ -3168,7 +3465,9 @@
       <c r="E28" s="14"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
+      <c r="A29" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B29" s="8">
         <v>28</v>
       </c>
@@ -3177,7 +3476,9 @@
       <c r="E29" s="15"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
+      <c r="A30" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B30" s="6">
         <v>29</v>
       </c>
@@ -3186,7 +3487,9 @@
       <c r="E30" s="14"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
+      <c r="A31" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B31" s="8">
         <v>30</v>
       </c>
@@ -3195,7 +3498,9 @@
       <c r="E31" s="15"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="5"/>
+      <c r="A32" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B32" s="6">
         <v>31</v>
       </c>
@@ -3204,7 +3509,9 @@
       <c r="E32" s="14"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="7"/>
+      <c r="A33" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B33" s="8">
         <v>32</v>
       </c>
@@ -3213,7 +3520,9 @@
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
+      <c r="A34" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B34" s="6">
         <v>33</v>
       </c>
@@ -3222,7 +3531,9 @@
       <c r="E34" s="14"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
+      <c r="A35" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B35" s="8">
         <v>34</v>
       </c>
@@ -3231,7 +3542,9 @@
       <c r="E35" s="15"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="5"/>
+      <c r="A36" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B36" s="6">
         <v>35</v>
       </c>
@@ -3240,7 +3553,9 @@
       <c r="E36" s="14"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="7"/>
+      <c r="A37" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B37" s="8">
         <v>36</v>
       </c>
@@ -3249,7 +3564,9 @@
       <c r="E37" s="15"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="5"/>
+      <c r="A38" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B38" s="6">
         <v>37</v>
       </c>
@@ -3258,7 +3575,9 @@
       <c r="E38" s="14"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="7"/>
+      <c r="A39" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B39" s="8">
         <v>38</v>
       </c>
@@ -3267,7 +3586,9 @@
       <c r="E39" s="15"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="5"/>
+      <c r="A40" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B40" s="6">
         <v>39</v>
       </c>
@@ -3276,7 +3597,9 @@
       <c r="E40" s="19"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="7"/>
+      <c r="A41" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B41" s="8">
         <v>40</v>
       </c>
@@ -3285,7 +3608,9 @@
       <c r="E41" s="16"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="5"/>
+      <c r="A42" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B42" s="6">
         <v>41</v>
       </c>
@@ -3294,7 +3619,9 @@
       <c r="E42" s="14"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="7"/>
+      <c r="A43" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B43" s="8">
         <v>42</v>
       </c>
@@ -3303,7 +3630,9 @@
       <c r="E43" s="15"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="5"/>
+      <c r="A44" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B44" s="6">
         <v>43</v>
       </c>
@@ -3312,7 +3641,9 @@
       <c r="E44" s="14"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="7"/>
+      <c r="A45" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B45" s="8">
         <v>44</v>
       </c>
@@ -3321,7 +3652,9 @@
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="5"/>
+      <c r="A46" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B46" s="6">
         <v>45</v>
       </c>
@@ -3330,7 +3663,9 @@
       <c r="E46" s="14"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="7"/>
+      <c r="A47" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B47" s="8">
         <v>46</v>
       </c>
@@ -3339,7 +3674,9 @@
       <c r="E47" s="15"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="5"/>
+      <c r="A48" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B48" s="6">
         <v>47</v>
       </c>
@@ -3348,7 +3685,9 @@
       <c r="E48" s="14"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="7"/>
+      <c r="A49" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B49" s="8">
         <v>48</v>
       </c>
@@ -3357,7 +3696,9 @@
       <c r="E49" s="15"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="5"/>
+      <c r="A50" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B50" s="6">
         <v>49</v>
       </c>
@@ -3366,7 +3707,9 @@
       <c r="E50" s="14"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="7"/>
+      <c r="A51" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B51" s="8">
         <v>50</v>
       </c>
@@ -3375,7 +3718,9 @@
       <c r="E51" s="15"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="5"/>
+      <c r="A52" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B52" s="6">
         <v>51</v>
       </c>
@@ -3384,7 +3729,9 @@
       <c r="E52" s="14"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="7"/>
+      <c r="A53" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B53" s="8">
         <v>52</v>
       </c>
@@ -3393,7 +3740,9 @@
       <c r="E53" s="15"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="5"/>
+      <c r="A54" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B54" s="6">
         <v>53</v>
       </c>
@@ -3402,7 +3751,9 @@
       <c r="E54" s="14"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="7"/>
+      <c r="A55" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B55" s="8">
         <v>54</v>
       </c>
@@ -3411,7 +3762,9 @@
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="5"/>
+      <c r="A56" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B56" s="6">
         <v>55</v>
       </c>
@@ -3420,7 +3773,9 @@
       <c r="E56" s="14"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="7"/>
+      <c r="A57" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B57" s="8">
         <v>56</v>
       </c>
@@ -3429,7 +3784,9 @@
       <c r="E57" s="15"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="5"/>
+      <c r="A58" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B58" s="6">
         <v>57</v>
       </c>
@@ -3438,7 +3795,9 @@
       <c r="E58" s="14"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="7"/>
+      <c r="A59" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B59" s="8">
         <v>58</v>
       </c>
@@ -3447,7 +3806,9 @@
       <c r="E59" s="15"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="5"/>
+      <c r="A60" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B60" s="6">
         <v>59</v>
       </c>
@@ -3456,7 +3817,9 @@
       <c r="E60" s="14"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="7"/>
+      <c r="A61" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B61" s="8">
         <v>60</v>
       </c>
@@ -3465,7 +3828,9 @@
       <c r="E61" s="15"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="5"/>
+      <c r="A62" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B62" s="6">
         <v>61</v>
       </c>
@@ -3474,7 +3839,9 @@
       <c r="E62" s="14"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="7"/>
+      <c r="A63" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B63" s="8">
         <v>62</v>
       </c>
@@ -3483,7 +3850,9 @@
       <c r="E63" s="15"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="5"/>
+      <c r="A64" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B64" s="6">
         <v>63</v>
       </c>
@@ -3492,7 +3861,9 @@
       <c r="E64" s="14"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="7"/>
+      <c r="A65" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B65" s="8">
         <v>64</v>
       </c>
@@ -3501,7 +3872,9 @@
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="5"/>
+      <c r="A66" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B66" s="6">
         <v>65</v>
       </c>
@@ -3510,7 +3883,9 @@
       <c r="E66" s="14"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="7"/>
+      <c r="A67" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B67" s="8">
         <v>66</v>
       </c>
@@ -3519,7 +3894,9 @@
       <c r="E67" s="15"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="5"/>
+      <c r="A68" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B68" s="6">
         <v>67</v>
       </c>
@@ -3528,7 +3905,9 @@
       <c r="E68" s="14"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="7"/>
+      <c r="A69" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B69" s="8">
         <v>68</v>
       </c>
@@ -3537,7 +3916,9 @@
       <c r="E69" s="15"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="5"/>
+      <c r="A70" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B70" s="6">
         <v>69</v>
       </c>
@@ -3546,7 +3927,9 @@
       <c r="E70" s="14"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="7"/>
+      <c r="A71" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B71" s="8">
         <v>70</v>
       </c>
@@ -3555,7 +3938,9 @@
       <c r="E71" s="15"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="5"/>
+      <c r="A72" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B72" s="6">
         <v>71</v>
       </c>
@@ -3564,7 +3949,9 @@
       <c r="E72" s="14"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="7"/>
+      <c r="A73" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B73" s="8">
         <v>72</v>
       </c>
@@ -3573,7 +3960,9 @@
       <c r="E73" s="15"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="5"/>
+      <c r="A74" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B74" s="6">
         <v>73</v>
       </c>
@@ -3582,7 +3971,9 @@
       <c r="E74" s="14"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="7"/>
+      <c r="A75" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B75" s="8">
         <v>74</v>
       </c>
@@ -3591,7 +3982,9 @@
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="5"/>
+      <c r="A76" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B76" s="6">
         <v>75</v>
       </c>
@@ -3600,7 +3993,9 @@
       <c r="E76" s="14"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="7"/>
+      <c r="A77" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B77" s="8">
         <v>76</v>
       </c>
@@ -3609,7 +4004,9 @@
       <c r="E77" s="15"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="5"/>
+      <c r="A78" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B78" s="6">
         <v>77</v>
       </c>
@@ -3618,7 +4015,9 @@
       <c r="E78" s="14"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="7"/>
+      <c r="A79" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B79" s="8">
         <v>78</v>
       </c>
@@ -3627,7 +4026,9 @@
       <c r="E79" s="15"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="5"/>
+      <c r="A80" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B80" s="6">
         <v>79</v>
       </c>
@@ -3636,7 +4037,9 @@
       <c r="E80" s="14"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="7"/>
+      <c r="A81" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="B81" s="8">
         <v>80</v>
       </c>

--- a/ISTDB/Resources/timetable.xlsx
+++ b/ISTDB/Resources/timetable.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Brendan.Walker/Projects/ISTDB/ISTDB/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00FA5E3-9184-DA4F-82EE-AA510528E537}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFDBFBC-A25A-1141-96A8-3A9F44002116}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="4" r:id="rId1"/>
-    <sheet name="2" sheetId="6" r:id="rId2"/>
-    <sheet name="3" sheetId="7" r:id="rId3"/>
-    <sheet name="0" sheetId="8" r:id="rId4"/>
+    <sheet name="0" sheetId="8" r:id="rId1"/>
+    <sheet name="1" sheetId="4" r:id="rId2"/>
+    <sheet name="2" sheetId="6" r:id="rId3"/>
+    <sheet name="3" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="36">
   <si>
     <t>Session</t>
   </si>
@@ -129,6 +129,9 @@
   <si>
     <t>SPO.SB</t>
   </si>
+  <si>
+    <t>Tid</t>
+  </si>
 </sst>
 </file>
 
@@ -169,7 +172,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,6 +200,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF4472C4"/>
         <bgColor rgb="FF4472C4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -249,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -289,6 +304,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,6 +698,1113 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0730A3FC-C6CA-B14F-9960-F5E00466E064}">
+  <dimension ref="A1:E81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="8">
+        <v>2</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="8">
+        <v>4</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8">
+        <v>6</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6">
+        <v>7</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="8">
+        <v>8</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="6">
+        <v>9</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="8">
+        <v>10</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="6">
+        <v>11</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="8">
+        <v>12</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="6">
+        <v>13</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="8">
+        <v>14</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="6">
+        <v>15</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="8">
+        <v>16</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="6">
+        <v>17</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="8">
+        <v>18</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="6">
+        <v>19</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="8">
+        <v>20</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="6">
+        <v>21</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="8">
+        <v>22</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="6">
+        <v>23</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="8">
+        <v>24</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="6">
+        <v>25</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="8">
+        <v>26</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="6">
+        <v>27</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="8">
+        <v>28</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="6">
+        <v>29</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="8">
+        <v>30</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="6">
+        <v>31</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="8">
+        <v>32</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="6">
+        <v>33</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="14"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="8">
+        <v>34</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="15"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="6">
+        <v>35</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="14"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="8">
+        <v>36</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="6">
+        <v>37</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="14"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="8">
+        <v>38</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="6">
+        <v>39</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="19"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="8">
+        <v>40</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="16"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="6">
+        <v>41</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="14"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="8">
+        <v>42</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="15"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="6">
+        <v>43</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="14"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="8">
+        <v>44</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="15"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="6">
+        <v>45</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="14"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="8">
+        <v>46</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="15"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="6">
+        <v>47</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="14"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="8">
+        <v>48</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="15"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="6">
+        <v>49</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="14"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="8">
+        <v>50</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="15"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="6">
+        <v>51</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="14"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="8">
+        <v>52</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="15"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="6">
+        <v>53</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="14"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="8">
+        <v>54</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="15"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="6">
+        <v>55</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="14"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="8">
+        <v>56</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="15"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="6">
+        <v>57</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="14"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="8">
+        <v>58</v>
+      </c>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="15"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="6">
+        <v>59</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="14"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="8">
+        <v>60</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="15"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="6">
+        <v>61</v>
+      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="14"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="8">
+        <v>62</v>
+      </c>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="15"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="6">
+        <v>63</v>
+      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="14"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="8">
+        <v>64</v>
+      </c>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="15"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" s="6">
+        <v>65</v>
+      </c>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="14"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="8">
+        <v>66</v>
+      </c>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="15"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" s="6">
+        <v>67</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="14"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="8">
+        <v>68</v>
+      </c>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="15"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" s="6">
+        <v>69</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="14"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" s="8">
+        <v>70</v>
+      </c>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="15"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="6">
+        <v>71</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="14"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" s="8">
+        <v>72</v>
+      </c>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="15"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="6">
+        <v>73</v>
+      </c>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="14"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" s="8">
+        <v>74</v>
+      </c>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="15"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" s="6">
+        <v>75</v>
+      </c>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="14"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" s="8">
+        <v>76</v>
+      </c>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="15"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" s="6">
+        <v>77</v>
+      </c>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="14"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="8">
+        <v>78</v>
+      </c>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="15"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" s="6">
+        <v>79</v>
+      </c>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="14"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" s="8">
+        <v>80</v>
+      </c>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A581B009-570A-452C-BF5F-AF9BB96CD8F3}">
   <dimension ref="A1:E81"/>
   <sheetViews>
@@ -1489,7 +2619,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6A51A6-E75A-0B45-B992-FFFDE7093637}">
   <dimension ref="A1:E81"/>
   <sheetViews>
@@ -2241,7 +3371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5D1529-1C77-EF45-9D6E-88D83B33AB1E}">
   <dimension ref="A1:E81"/>
   <sheetViews>
@@ -2991,1063 +4121,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0730A3FC-C6CA-B14F-9960-F5E00466E064}">
-  <dimension ref="A1:E81"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:E25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="6">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="8">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="6">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="8">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="6">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="8">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="6">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="8">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="6">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="8">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="6">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="8">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="6">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="8">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="6">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="8">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="6">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="8">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="6">
-        <v>21</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="8">
-        <v>22</v>
-      </c>
-      <c r="C23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="6">
-        <v>23</v>
-      </c>
-      <c r="C24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="8">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="6">
-        <v>25</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="8">
-        <v>26</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="15"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="6">
-        <v>27</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="14"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="8">
-        <v>28</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="15"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="6">
-        <v>29</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="14"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="8">
-        <v>30</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="15"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="6">
-        <v>31</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="14"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="8">
-        <v>32</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="15"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="6">
-        <v>33</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="14"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="8">
-        <v>34</v>
-      </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="15"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="6">
-        <v>35</v>
-      </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="14"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="8">
-        <v>36</v>
-      </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="15"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="6">
-        <v>37</v>
-      </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="14"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="8">
-        <v>38</v>
-      </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="15"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="6">
-        <v>39</v>
-      </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="19"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="8">
-        <v>40</v>
-      </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="16"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" s="6">
-        <v>41</v>
-      </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="14"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="8">
-        <v>42</v>
-      </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="15"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="6">
-        <v>43</v>
-      </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="14"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" s="8">
-        <v>44</v>
-      </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="15"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" s="6">
-        <v>45</v>
-      </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="14"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47" s="8">
-        <v>46</v>
-      </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="15"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48" s="6">
-        <v>47</v>
-      </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="14"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49" s="8">
-        <v>48</v>
-      </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="15"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" s="6">
-        <v>49</v>
-      </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="14"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51" s="8">
-        <v>50</v>
-      </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="15"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" s="6">
-        <v>51</v>
-      </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="14"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B53" s="8">
-        <v>52</v>
-      </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="15"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B54" s="6">
-        <v>53</v>
-      </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="14"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55" s="8">
-        <v>54</v>
-      </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="15"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B56" s="6">
-        <v>55</v>
-      </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="14"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B57" s="8">
-        <v>56</v>
-      </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="15"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B58" s="6">
-        <v>57</v>
-      </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="14"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B59" s="8">
-        <v>58</v>
-      </c>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="15"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B60" s="6">
-        <v>59</v>
-      </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="14"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B61" s="8">
-        <v>60</v>
-      </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="15"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B62" s="6">
-        <v>61</v>
-      </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="14"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B63" s="8">
-        <v>62</v>
-      </c>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="15"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B64" s="6">
-        <v>63</v>
-      </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="14"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B65" s="8">
-        <v>64</v>
-      </c>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="15"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B66" s="6">
-        <v>65</v>
-      </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="14"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B67" s="8">
-        <v>66</v>
-      </c>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="15"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B68" s="6">
-        <v>67</v>
-      </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="14"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B69" s="8">
-        <v>68</v>
-      </c>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="15"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B70" s="6">
-        <v>69</v>
-      </c>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="14"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B71" s="8">
-        <v>70</v>
-      </c>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="15"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B72" s="6">
-        <v>71</v>
-      </c>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="14"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B73" s="8">
-        <v>72</v>
-      </c>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="15"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B74" s="6">
-        <v>73</v>
-      </c>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="14"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B75" s="8">
-        <v>74</v>
-      </c>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="15"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B76" s="6">
-        <v>75</v>
-      </c>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="14"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B77" s="8">
-        <v>76</v>
-      </c>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="15"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B78" s="6">
-        <v>77</v>
-      </c>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="14"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B79" s="8">
-        <v>78</v>
-      </c>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="15"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B80" s="6">
-        <v>79</v>
-      </c>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="14"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B81" s="8">
-        <v>80</v>
-      </c>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="15"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/ISTDB/Resources/timetable.xlsx
+++ b/ISTDB/Resources/timetable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Brendan.Walker/Projects/ISTDB/ISTDB/Resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BrandanWalker\Documents\GitHub\ISTDB_2\ISTDB\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFDBFBC-A25A-1141-96A8-3A9F44002116}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C31E64-B642-4596-BD41-C4ED5DAD89C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="8" r:id="rId1"/>
@@ -18,12 +18,23 @@
     <sheet name="2" sheetId="6" r:id="rId3"/>
     <sheet name="3" sheetId="7" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="48">
   <si>
     <t>Session</t>
   </si>
@@ -131,6 +142,42 @@
   </si>
   <si>
     <t>Tid</t>
+  </si>
+  <si>
+    <t>CR.J</t>
+  </si>
+  <si>
+    <t>Fed</t>
+  </si>
+  <si>
+    <t>CAR.J</t>
+  </si>
+  <si>
+    <t>S7</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>StC</t>
+  </si>
+  <si>
+    <t>.J</t>
+  </si>
+  <si>
+    <t>S19</t>
+  </si>
+  <si>
+    <t>Bat</t>
+  </si>
+  <si>
+    <t>.SS</t>
+  </si>
+  <si>
+    <t>Thr</t>
+  </si>
+  <si>
+    <t>Pre</t>
   </si>
 </sst>
 </file>
@@ -172,7 +219,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,6 +259,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -264,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -312,6 +365,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -699,18 +765,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0730A3FC-C6CA-B14F-9960-F5E00466E064}">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:AJ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="I21" sqref="I20:I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
@@ -727,7 +793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>5</v>
       </c>
@@ -744,7 +810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
@@ -761,7 +827,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>5</v>
       </c>
@@ -778,7 +844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>5</v>
       </c>
@@ -795,7 +861,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
@@ -812,7 +878,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>5</v>
       </c>
@@ -829,7 +895,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>5</v>
       </c>
@@ -846,7 +912,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>5</v>
       </c>
@@ -863,7 +929,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>5</v>
       </c>
@@ -880,7 +946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>5</v>
       </c>
@@ -897,7 +963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>5</v>
       </c>
@@ -914,7 +980,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>5</v>
       </c>
@@ -931,7 +997,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>5</v>
       </c>
@@ -948,7 +1014,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
         <v>5</v>
       </c>
@@ -965,7 +1031,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
         <v>5</v>
       </c>
@@ -982,7 +1048,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
         <v>5</v>
       </c>
@@ -999,7 +1065,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
         <v>5</v>
       </c>
@@ -1016,7 +1082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>5</v>
       </c>
@@ -1033,7 +1099,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
         <v>5</v>
       </c>
@@ -1050,7 +1116,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>5</v>
       </c>
@@ -1067,7 +1133,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>5</v>
       </c>
@@ -1084,7 +1150,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>5</v>
       </c>
@@ -1101,7 +1167,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>5</v>
       </c>
@@ -1118,7 +1184,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>5</v>
       </c>
@@ -1135,7 +1201,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>5</v>
       </c>
@@ -1152,7 +1218,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>5</v>
       </c>
@@ -1169,7 +1235,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
         <v>5</v>
       </c>
@@ -1186,7 +1252,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>5</v>
       </c>
@@ -1203,7 +1269,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="20" t="s">
         <v>5</v>
       </c>
@@ -1220,7 +1286,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>5</v>
       </c>
@@ -1237,7 +1303,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
         <v>5</v>
       </c>
@@ -1254,7 +1320,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
         <v>5</v>
       </c>
@@ -1271,533 +1337,846 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A34" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="6">
         <v>33</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="14"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C34" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="8">
         <v>34</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="15"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C35" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A36" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B36" s="6">
         <v>35</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="14"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C36" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A37" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B37" s="8">
         <v>36</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="15"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C37" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A38" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B38" s="6">
         <v>37</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="14"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C38" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A39" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B39" s="8">
         <v>38</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="15"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C39" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A40" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B40" s="6">
         <v>39</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="19"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C40" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A41" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B41" s="8">
         <v>40</v>
       </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="16"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C41" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A42" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B42" s="6">
         <v>41</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="14"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C42" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z42" s="3"/>
+      <c r="AD42" s="3"/>
+      <c r="AE42" s="3"/>
+      <c r="AI42" s="3"/>
+      <c r="AJ42" s="3"/>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A43" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B43" s="8">
         <v>42</v>
       </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="15"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C43" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A44" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B44" s="6">
         <v>43</v>
       </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="14"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C44" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A45" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B45" s="8">
         <v>44</v>
       </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="15"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C45" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A46" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B46" s="6">
         <v>45</v>
       </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="14"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C46" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A47" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B47" s="8">
         <v>46</v>
       </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="15"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C47" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A48" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B48" s="6">
         <v>47</v>
       </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="14"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C48" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A49" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B49" s="8">
         <v>48</v>
       </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="15"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C49" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A50" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B50" s="6">
         <v>49</v>
       </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="14"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C50" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z50" s="3"/>
+      <c r="AD50" s="3"/>
+      <c r="AE50" s="3"/>
+      <c r="AI50" s="3"/>
+      <c r="AJ50" s="3"/>
+    </row>
+    <row r="51" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A51" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B51" s="8">
         <v>50</v>
       </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="15"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C51" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A52" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B52" s="6">
         <v>51</v>
       </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="14"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C52" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A53" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B53" s="8">
         <v>52</v>
       </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="15"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C53" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A54" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B54" s="6">
         <v>53</v>
       </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="14"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C54" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A55" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B55" s="8">
         <v>54</v>
       </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="15"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C55" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A56" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B56" s="6">
         <v>55</v>
       </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="14"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C56" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A57" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B57" s="8">
         <v>56</v>
       </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="15"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C57" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" s="23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A58" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B58" s="6">
         <v>57</v>
       </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="14"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C58" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z58" s="3"/>
+      <c r="AD58" s="3"/>
+      <c r="AE58" s="3"/>
+      <c r="AI58" s="3"/>
+      <c r="AJ58" s="3"/>
+    </row>
+    <row r="59" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A59" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B59" s="8">
         <v>58</v>
       </c>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="15"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C59" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A60" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B60" s="6">
         <v>59</v>
       </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="14"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C60" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D60" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E60" s="24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A61" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B61" s="8">
         <v>60</v>
       </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="15"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C61" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A62" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B62" s="6">
         <v>61</v>
       </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="14"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C62" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E62" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A63" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B63" s="8">
         <v>62</v>
       </c>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="15"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C63" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A64" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B64" s="6">
         <v>63</v>
       </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="14"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C64" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A65" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B65" s="8">
         <v>64</v>
       </c>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="15"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C65" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" s="29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A66" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B66" s="6">
         <v>65</v>
       </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="14"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C66" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z66" s="3"/>
+      <c r="AD66" s="3"/>
+      <c r="AE66" s="3"/>
+      <c r="AI66" s="3"/>
+      <c r="AJ66" s="3"/>
+    </row>
+    <row r="67" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A67" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B67" s="8">
         <v>66</v>
       </c>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="15"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C67" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E67" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A68" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B68" s="6">
         <v>67</v>
       </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="14"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C68" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D68" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A69" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B69" s="8">
         <v>68</v>
       </c>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="15"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C69" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A70" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B70" s="6">
         <v>69</v>
       </c>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="14"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C70" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E70" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A71" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B71" s="8">
         <v>70</v>
       </c>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="15"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C71" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A72" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B72" s="6">
         <v>71</v>
       </c>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="14"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C72" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E72" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A73" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B73" s="8">
         <v>72</v>
       </c>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="15"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C73" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E73" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A74" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B74" s="6">
         <v>73</v>
       </c>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="14"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C74" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z74" s="3"/>
+      <c r="AD74" s="3"/>
+      <c r="AE74" s="3"/>
+      <c r="AI74" s="3"/>
+      <c r="AJ74" s="3"/>
+    </row>
+    <row r="75" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A75" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B75" s="8">
         <v>74</v>
       </c>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="15"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C75" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D75" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E75" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A76" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B76" s="6">
         <v>75</v>
       </c>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="14"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C76" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D76" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E76" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A77" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B77" s="8">
         <v>76</v>
       </c>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="15"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C77" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A78" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B78" s="6">
         <v>77</v>
       </c>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="14"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C78" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A79" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B79" s="8">
         <v>78</v>
       </c>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="15"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C79" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A80" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B80" s="6">
         <v>79</v>
       </c>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="14"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C80" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E80" s="29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B81" s="8">
         <v>80</v>
       </c>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="15"/>
+      <c r="C81" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E81" s="29" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1812,15 +2191,15 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1837,7 +2216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1">
         <v>1</v>
@@ -1846,7 +2225,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
         <f>B2+1</f>
@@ -1856,7 +2235,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <f t="shared" ref="B4:B29" si="0">B3+1</f>
@@ -1866,7 +2245,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <f t="shared" si="0"/>
@@ -1876,7 +2255,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
         <f t="shared" si="0"/>
@@ -1886,7 +2265,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
@@ -1896,7 +2275,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
@@ -1906,7 +2285,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
@@ -1916,7 +2295,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
@@ -1924,7 +2303,7 @@
       </c>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
@@ -1932,7 +2311,7 @@
       </c>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1">
         <f t="shared" si="0"/>
@@ -1940,7 +2319,7 @@
       </c>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1">
         <f t="shared" si="0"/>
@@ -1948,7 +2327,7 @@
       </c>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1">
         <f t="shared" si="0"/>
@@ -1956,7 +2335,7 @@
       </c>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1">
         <f t="shared" si="0"/>
@@ -1964,7 +2343,7 @@
       </c>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1">
         <f t="shared" si="0"/>
@@ -1973,7 +2352,7 @@
       <c r="C16" s="4"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1">
         <f t="shared" si="0"/>
@@ -1983,7 +2362,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1">
         <f t="shared" si="0"/>
@@ -1993,7 +2372,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1">
         <f t="shared" si="0"/>
@@ -2003,7 +2382,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1">
         <f t="shared" si="0"/>
@@ -2013,7 +2392,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1">
         <f t="shared" si="0"/>
@@ -2023,7 +2402,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1">
         <f t="shared" si="0"/>
@@ -2033,7 +2412,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1">
         <f t="shared" si="0"/>
@@ -2043,7 +2422,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1">
         <f t="shared" si="0"/>
@@ -2053,7 +2432,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1">
         <f>B24+1</f>
@@ -2063,7 +2442,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1">
         <f t="shared" si="0"/>
@@ -2073,7 +2452,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1">
         <f t="shared" si="0"/>
@@ -2083,7 +2462,7 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1">
         <f t="shared" si="0"/>
@@ -2093,7 +2472,7 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1">
         <f t="shared" si="0"/>
@@ -2103,7 +2482,7 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1">
         <f t="shared" ref="B30:B71" si="1">B29+1</f>
@@ -2113,7 +2492,7 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1">
         <f t="shared" si="1"/>
@@ -2123,7 +2502,7 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1">
         <f t="shared" si="1"/>
@@ -2133,7 +2512,7 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1">
         <f t="shared" si="1"/>
@@ -2143,7 +2522,7 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1">
         <f t="shared" si="1"/>
@@ -2151,7 +2530,7 @@
       </c>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1">
         <f t="shared" si="1"/>
@@ -2159,7 +2538,7 @@
       </c>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1">
         <f t="shared" si="1"/>
@@ -2167,7 +2546,7 @@
       </c>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1">
         <f t="shared" si="1"/>
@@ -2175,7 +2554,7 @@
       </c>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1">
         <f t="shared" si="1"/>
@@ -2183,7 +2562,7 @@
       </c>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1">
         <f t="shared" si="1"/>
@@ -2191,7 +2570,7 @@
       </c>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1">
         <f t="shared" si="1"/>
@@ -2200,7 +2579,7 @@
       <c r="C40" s="2"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1">
         <f t="shared" si="1"/>
@@ -2210,7 +2589,7 @@
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1">
         <f t="shared" ref="B42:B50" si="2">B41+1</f>
@@ -2220,7 +2599,7 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1">
         <f t="shared" si="2"/>
@@ -2230,7 +2609,7 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1">
         <f t="shared" si="2"/>
@@ -2240,7 +2619,7 @@
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1">
         <f t="shared" si="2"/>
@@ -2250,7 +2629,7 @@
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1">
         <f t="shared" si="2"/>
@@ -2260,7 +2639,7 @@
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1">
         <f t="shared" si="2"/>
@@ -2270,7 +2649,7 @@
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1">
         <f t="shared" si="2"/>
@@ -2280,7 +2659,7 @@
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1">
         <f t="shared" si="2"/>
@@ -2290,7 +2669,7 @@
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1">
         <f t="shared" si="2"/>
@@ -2300,7 +2679,7 @@
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1">
         <f t="shared" si="1"/>
@@ -2310,7 +2689,7 @@
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1">
         <f t="shared" si="1"/>
@@ -2320,7 +2699,7 @@
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1">
         <f t="shared" si="1"/>
@@ -2330,7 +2709,7 @@
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1">
         <f t="shared" si="1"/>
@@ -2340,7 +2719,7 @@
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1">
         <f t="shared" si="1"/>
@@ -2350,7 +2729,7 @@
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1">
         <f t="shared" si="1"/>
@@ -2360,7 +2739,7 @@
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1">
         <f>B56+1</f>
@@ -2370,7 +2749,7 @@
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1">
         <f t="shared" si="1"/>
@@ -2380,7 +2759,7 @@
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1">
         <f t="shared" si="1"/>
@@ -2390,7 +2769,7 @@
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1">
         <f t="shared" si="1"/>
@@ -2400,7 +2779,7 @@
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1">
         <f t="shared" si="1"/>
@@ -2410,7 +2789,7 @@
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1">
         <f t="shared" si="1"/>
@@ -2420,7 +2799,7 @@
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1">
         <f t="shared" si="1"/>
@@ -2430,7 +2809,7 @@
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1">
         <f t="shared" si="1"/>
@@ -2440,7 +2819,7 @@
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1">
         <f t="shared" si="1"/>
@@ -2450,7 +2829,7 @@
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1">
         <f t="shared" si="1"/>
@@ -2460,7 +2839,7 @@
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1">
         <f t="shared" si="1"/>
@@ -2470,7 +2849,7 @@
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1">
         <f t="shared" si="1"/>
@@ -2480,7 +2859,7 @@
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1">
         <f t="shared" si="1"/>
@@ -2490,7 +2869,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1">
         <f t="shared" si="1"/>
@@ -2500,7 +2879,7 @@
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1">
         <f t="shared" si="1"/>
@@ -2510,7 +2889,7 @@
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1">
         <f t="shared" ref="B72:B81" si="3">B71+1</f>
@@ -2520,7 +2899,7 @@
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1">
         <f t="shared" si="3"/>
@@ -2530,7 +2909,7 @@
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1">
         <f t="shared" si="3"/>
@@ -2540,7 +2919,7 @@
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1">
         <f t="shared" si="3"/>
@@ -2550,7 +2929,7 @@
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1">
         <f t="shared" si="3"/>
@@ -2560,7 +2939,7 @@
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1">
         <f t="shared" si="3"/>
@@ -2570,7 +2949,7 @@
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1">
         <f t="shared" si="3"/>
@@ -2580,7 +2959,7 @@
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1">
         <f t="shared" si="3"/>
@@ -2590,7 +2969,7 @@
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1">
         <f t="shared" si="3"/>
@@ -2600,7 +2979,7 @@
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1">
         <f t="shared" si="3"/>
@@ -2627,9 +3006,9 @@
       <selection sqref="A1:E81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
@@ -2646,7 +3025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="6">
         <v>1</v>
@@ -2655,7 +3034,7 @@
       <c r="D2" s="6"/>
       <c r="E2" s="14"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="8">
         <v>2</v>
@@ -2664,7 +3043,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="15"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="6">
         <v>3</v>
@@ -2673,7 +3052,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="14"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="8">
         <v>4</v>
@@ -2682,7 +3061,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="15"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="6">
         <v>5</v>
@@ -2691,7 +3070,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="14"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="8">
         <v>6</v>
@@ -2700,7 +3079,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="6">
         <v>7</v>
@@ -2709,7 +3088,7 @@
       <c r="D8" s="6"/>
       <c r="E8" s="14"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="8">
         <v>8</v>
@@ -2718,7 +3097,7 @@
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <v>9</v>
@@ -2727,7 +3106,7 @@
       <c r="D10" s="6"/>
       <c r="E10" s="14"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="8">
         <v>10</v>
@@ -2736,7 +3115,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="15"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="6">
         <v>11</v>
@@ -2745,7 +3124,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="14"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="8">
         <v>12</v>
@@ -2754,7 +3133,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="6">
         <v>13</v>
@@ -2763,7 +3142,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="8">
         <v>14</v>
@@ -2772,7 +3151,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="6">
         <v>15</v>
@@ -2781,7 +3160,7 @@
       <c r="D16" s="6"/>
       <c r="E16" s="19"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="8">
         <v>16</v>
@@ -2790,7 +3169,7 @@
       <c r="D17" s="10"/>
       <c r="E17" s="16"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="6">
         <v>17</v>
@@ -2799,7 +3178,7 @@
       <c r="D18" s="6"/>
       <c r="E18" s="14"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="8">
         <v>18</v>
@@ -2808,7 +3187,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="15"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="6">
         <v>19</v>
@@ -2817,7 +3196,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="14"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="8">
         <v>20</v>
@@ -2826,7 +3205,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="15"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="6">
         <v>21</v>
@@ -2835,7 +3214,7 @@
       <c r="D22" s="6"/>
       <c r="E22" s="14"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="8">
         <v>22</v>
@@ -2844,7 +3223,7 @@
       <c r="D23" s="8"/>
       <c r="E23" s="15"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="6">
         <v>23</v>
@@ -2853,7 +3232,7 @@
       <c r="D24" s="6"/>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="8">
         <v>24</v>
@@ -2862,7 +3241,7 @@
       <c r="D25" s="8"/>
       <c r="E25" s="15"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <v>25</v>
@@ -2871,7 +3250,7 @@
       <c r="D26" s="6"/>
       <c r="E26" s="14"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" s="8">
         <v>26</v>
@@ -2880,7 +3259,7 @@
       <c r="D27" s="8"/>
       <c r="E27" s="15"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="6">
         <v>27</v>
@@ -2889,7 +3268,7 @@
       <c r="D28" s="6"/>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="8">
         <v>28</v>
@@ -2898,7 +3277,7 @@
       <c r="D29" s="8"/>
       <c r="E29" s="15"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="6">
         <v>29</v>
@@ -2907,7 +3286,7 @@
       <c r="D30" s="6"/>
       <c r="E30" s="14"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="8">
         <v>30</v>
@@ -2916,7 +3295,7 @@
       <c r="D31" s="8"/>
       <c r="E31" s="15"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="6">
         <v>31</v>
@@ -2925,7 +3304,7 @@
       <c r="D32" s="6"/>
       <c r="E32" s="14"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="8">
         <v>32</v>
@@ -2934,7 +3313,7 @@
       <c r="D33" s="8"/>
       <c r="E33" s="15"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
         <v>33</v>
@@ -2943,7 +3322,7 @@
       <c r="D34" s="6"/>
       <c r="E34" s="14"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="8">
         <v>34</v>
@@ -2952,7 +3331,7 @@
       <c r="D35" s="8"/>
       <c r="E35" s="15"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
         <v>35</v>
@@ -2961,7 +3340,7 @@
       <c r="D36" s="6"/>
       <c r="E36" s="14"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="8">
         <v>36</v>
@@ -2970,7 +3349,7 @@
       <c r="D37" s="8"/>
       <c r="E37" s="15"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="6">
         <v>37</v>
@@ -2979,7 +3358,7 @@
       <c r="D38" s="6"/>
       <c r="E38" s="14"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
       <c r="B39" s="8">
         <v>38</v>
@@ -2988,7 +3367,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="15"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="6">
         <v>39</v>
@@ -2997,7 +3376,7 @@
       <c r="D40" s="6"/>
       <c r="E40" s="19"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" s="8">
         <v>40</v>
@@ -3006,7 +3385,7 @@
       <c r="D41" s="10"/>
       <c r="E41" s="16"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="6">
         <v>41</v>
@@ -3015,7 +3394,7 @@
       <c r="D42" s="6"/>
       <c r="E42" s="14"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
       <c r="B43" s="8">
         <v>42</v>
@@ -3024,7 +3403,7 @@
       <c r="D43" s="8"/>
       <c r="E43" s="15"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="6">
         <v>43</v>
@@ -3033,7 +3412,7 @@
       <c r="D44" s="6"/>
       <c r="E44" s="14"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
       <c r="B45" s="8">
         <v>44</v>
@@ -3042,7 +3421,7 @@
       <c r="D45" s="8"/>
       <c r="E45" s="15"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="6">
         <v>45</v>
@@ -3051,7 +3430,7 @@
       <c r="D46" s="6"/>
       <c r="E46" s="14"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
       <c r="B47" s="8">
         <v>46</v>
@@ -3060,7 +3439,7 @@
       <c r="D47" s="8"/>
       <c r="E47" s="15"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="6">
         <v>47</v>
@@ -3069,7 +3448,7 @@
       <c r="D48" s="6"/>
       <c r="E48" s="14"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
       <c r="B49" s="8">
         <v>48</v>
@@ -3078,7 +3457,7 @@
       <c r="D49" s="8"/>
       <c r="E49" s="15"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="6">
         <v>49</v>
@@ -3087,7 +3466,7 @@
       <c r="D50" s="6"/>
       <c r="E50" s="14"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
       <c r="B51" s="8">
         <v>50</v>
@@ -3096,7 +3475,7 @@
       <c r="D51" s="8"/>
       <c r="E51" s="15"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="B52" s="6">
         <v>51</v>
@@ -3105,7 +3484,7 @@
       <c r="D52" s="6"/>
       <c r="E52" s="14"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
       <c r="B53" s="8">
         <v>52</v>
@@ -3114,7 +3493,7 @@
       <c r="D53" s="8"/>
       <c r="E53" s="15"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
       <c r="B54" s="6">
         <v>53</v>
@@ -3123,7 +3502,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="14"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
       <c r="B55" s="8">
         <v>54</v>
@@ -3132,7 +3511,7 @@
       <c r="D55" s="8"/>
       <c r="E55" s="15"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
       <c r="B56" s="6">
         <v>55</v>
@@ -3141,7 +3520,7 @@
       <c r="D56" s="6"/>
       <c r="E56" s="14"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="7"/>
       <c r="B57" s="8">
         <v>56</v>
@@ -3150,7 +3529,7 @@
       <c r="D57" s="8"/>
       <c r="E57" s="15"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
       <c r="B58" s="6">
         <v>57</v>
@@ -3159,7 +3538,7 @@
       <c r="D58" s="6"/>
       <c r="E58" s="14"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="7"/>
       <c r="B59" s="8">
         <v>58</v>
@@ -3168,7 +3547,7 @@
       <c r="D59" s="8"/>
       <c r="E59" s="15"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
       <c r="B60" s="6">
         <v>59</v>
@@ -3177,7 +3556,7 @@
       <c r="D60" s="6"/>
       <c r="E60" s="14"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="7"/>
       <c r="B61" s="8">
         <v>60</v>
@@ -3186,7 +3565,7 @@
       <c r="D61" s="8"/>
       <c r="E61" s="15"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="5"/>
       <c r="B62" s="6">
         <v>61</v>
@@ -3195,7 +3574,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="14"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="7"/>
       <c r="B63" s="8">
         <v>62</v>
@@ -3204,7 +3583,7 @@
       <c r="D63" s="8"/>
       <c r="E63" s="15"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
       <c r="B64" s="6">
         <v>63</v>
@@ -3213,7 +3592,7 @@
       <c r="D64" s="6"/>
       <c r="E64" s="14"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="7"/>
       <c r="B65" s="8">
         <v>64</v>
@@ -3222,7 +3601,7 @@
       <c r="D65" s="8"/>
       <c r="E65" s="15"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
       <c r="B66" s="6">
         <v>65</v>
@@ -3231,7 +3610,7 @@
       <c r="D66" s="6"/>
       <c r="E66" s="14"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="7"/>
       <c r="B67" s="8">
         <v>66</v>
@@ -3240,7 +3619,7 @@
       <c r="D67" s="8"/>
       <c r="E67" s="15"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="5"/>
       <c r="B68" s="6">
         <v>67</v>
@@ -3249,7 +3628,7 @@
       <c r="D68" s="6"/>
       <c r="E68" s="14"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="7"/>
       <c r="B69" s="8">
         <v>68</v>
@@ -3258,7 +3637,7 @@
       <c r="D69" s="8"/>
       <c r="E69" s="15"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="5"/>
       <c r="B70" s="6">
         <v>69</v>
@@ -3267,7 +3646,7 @@
       <c r="D70" s="6"/>
       <c r="E70" s="14"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="7"/>
       <c r="B71" s="8">
         <v>70</v>
@@ -3276,7 +3655,7 @@
       <c r="D71" s="8"/>
       <c r="E71" s="15"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="5"/>
       <c r="B72" s="6">
         <v>71</v>
@@ -3285,7 +3664,7 @@
       <c r="D72" s="6"/>
       <c r="E72" s="14"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="7"/>
       <c r="B73" s="8">
         <v>72</v>
@@ -3294,7 +3673,7 @@
       <c r="D73" s="8"/>
       <c r="E73" s="15"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
       <c r="B74" s="6">
         <v>73</v>
@@ -3303,7 +3682,7 @@
       <c r="D74" s="6"/>
       <c r="E74" s="14"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="7"/>
       <c r="B75" s="8">
         <v>74</v>
@@ -3312,7 +3691,7 @@
       <c r="D75" s="8"/>
       <c r="E75" s="15"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="5"/>
       <c r="B76" s="6">
         <v>75</v>
@@ -3321,7 +3700,7 @@
       <c r="D76" s="6"/>
       <c r="E76" s="14"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="7"/>
       <c r="B77" s="8">
         <v>76</v>
@@ -3330,7 +3709,7 @@
       <c r="D77" s="8"/>
       <c r="E77" s="15"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="5"/>
       <c r="B78" s="6">
         <v>77</v>
@@ -3339,7 +3718,7 @@
       <c r="D78" s="6"/>
       <c r="E78" s="14"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="7"/>
       <c r="B79" s="8">
         <v>78</v>
@@ -3348,7 +3727,7 @@
       <c r="D79" s="8"/>
       <c r="E79" s="15"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="5"/>
       <c r="B80" s="6">
         <v>79</v>
@@ -3357,7 +3736,7 @@
       <c r="D80" s="6"/>
       <c r="E80" s="14"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="7"/>
       <c r="B81" s="8">
         <v>80</v>
@@ -3379,9 +3758,9 @@
       <selection sqref="A1:E81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
@@ -3398,7 +3777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="6">
         <v>1</v>
@@ -3407,7 +3786,7 @@
       <c r="D2" s="6"/>
       <c r="E2" s="14"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="8">
         <v>2</v>
@@ -3416,7 +3795,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="15"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="6">
         <v>3</v>
@@ -3425,7 +3804,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="14"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="8">
         <v>4</v>
@@ -3434,7 +3813,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="15"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="6">
         <v>5</v>
@@ -3443,7 +3822,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="14"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="8">
         <v>6</v>
@@ -3452,7 +3831,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="6">
         <v>7</v>
@@ -3461,7 +3840,7 @@
       <c r="D8" s="6"/>
       <c r="E8" s="14"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="8">
         <v>8</v>
@@ -3470,7 +3849,7 @@
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <v>9</v>
@@ -3479,7 +3858,7 @@
       <c r="D10" s="6"/>
       <c r="E10" s="14"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="8">
         <v>10</v>
@@ -3488,7 +3867,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="15"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="6">
         <v>11</v>
@@ -3497,7 +3876,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="14"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="8">
         <v>12</v>
@@ -3506,7 +3885,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="6">
         <v>13</v>
@@ -3515,7 +3894,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="8">
         <v>14</v>
@@ -3524,7 +3903,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="6">
         <v>15</v>
@@ -3533,7 +3912,7 @@
       <c r="D16" s="6"/>
       <c r="E16" s="19"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="8">
         <v>16</v>
@@ -3542,7 +3921,7 @@
       <c r="D17" s="10"/>
       <c r="E17" s="16"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="6">
         <v>17</v>
@@ -3551,7 +3930,7 @@
       <c r="D18" s="6"/>
       <c r="E18" s="14"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="8">
         <v>18</v>
@@ -3560,7 +3939,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="15"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="6">
         <v>19</v>
@@ -3569,7 +3948,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="14"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="8">
         <v>20</v>
@@ -3578,7 +3957,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="15"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="6">
         <v>21</v>
@@ -3587,7 +3966,7 @@
       <c r="D22" s="6"/>
       <c r="E22" s="14"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="8">
         <v>22</v>
@@ -3596,7 +3975,7 @@
       <c r="D23" s="8"/>
       <c r="E23" s="15"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="6">
         <v>23</v>
@@ -3605,7 +3984,7 @@
       <c r="D24" s="6"/>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="8">
         <v>24</v>
@@ -3614,7 +3993,7 @@
       <c r="D25" s="8"/>
       <c r="E25" s="15"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <v>25</v>
@@ -3623,7 +4002,7 @@
       <c r="D26" s="6"/>
       <c r="E26" s="14"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" s="8">
         <v>26</v>
@@ -3632,7 +4011,7 @@
       <c r="D27" s="8"/>
       <c r="E27" s="15"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="6">
         <v>27</v>
@@ -3641,7 +4020,7 @@
       <c r="D28" s="6"/>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="8">
         <v>28</v>
@@ -3650,7 +4029,7 @@
       <c r="D29" s="8"/>
       <c r="E29" s="15"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="6">
         <v>29</v>
@@ -3659,7 +4038,7 @@
       <c r="D30" s="6"/>
       <c r="E30" s="14"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="8">
         <v>30</v>
@@ -3668,7 +4047,7 @@
       <c r="D31" s="8"/>
       <c r="E31" s="15"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="6">
         <v>31</v>
@@ -3677,7 +4056,7 @@
       <c r="D32" s="6"/>
       <c r="E32" s="14"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="8">
         <v>32</v>
@@ -3686,7 +4065,7 @@
       <c r="D33" s="8"/>
       <c r="E33" s="15"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
         <v>33</v>
@@ -3695,7 +4074,7 @@
       <c r="D34" s="6"/>
       <c r="E34" s="14"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="8">
         <v>34</v>
@@ -3704,7 +4083,7 @@
       <c r="D35" s="8"/>
       <c r="E35" s="15"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
         <v>35</v>
@@ -3713,7 +4092,7 @@
       <c r="D36" s="6"/>
       <c r="E36" s="14"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="8">
         <v>36</v>
@@ -3722,7 +4101,7 @@
       <c r="D37" s="8"/>
       <c r="E37" s="15"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="6">
         <v>37</v>
@@ -3731,7 +4110,7 @@
       <c r="D38" s="6"/>
       <c r="E38" s="14"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
       <c r="B39" s="8">
         <v>38</v>
@@ -3740,7 +4119,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="15"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="6">
         <v>39</v>
@@ -3749,7 +4128,7 @@
       <c r="D40" s="6"/>
       <c r="E40" s="19"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" s="8">
         <v>40</v>
@@ -3758,7 +4137,7 @@
       <c r="D41" s="10"/>
       <c r="E41" s="16"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="6">
         <v>41</v>
@@ -3767,7 +4146,7 @@
       <c r="D42" s="6"/>
       <c r="E42" s="14"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
       <c r="B43" s="8">
         <v>42</v>
@@ -3776,7 +4155,7 @@
       <c r="D43" s="8"/>
       <c r="E43" s="15"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="6">
         <v>43</v>
@@ -3785,7 +4164,7 @@
       <c r="D44" s="6"/>
       <c r="E44" s="14"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
       <c r="B45" s="8">
         <v>44</v>
@@ -3794,7 +4173,7 @@
       <c r="D45" s="8"/>
       <c r="E45" s="15"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="6">
         <v>45</v>
@@ -3803,7 +4182,7 @@
       <c r="D46" s="6"/>
       <c r="E46" s="14"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
       <c r="B47" s="8">
         <v>46</v>
@@ -3812,7 +4191,7 @@
       <c r="D47" s="8"/>
       <c r="E47" s="15"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="6">
         <v>47</v>
@@ -3821,7 +4200,7 @@
       <c r="D48" s="6"/>
       <c r="E48" s="14"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
       <c r="B49" s="8">
         <v>48</v>
@@ -3830,7 +4209,7 @@
       <c r="D49" s="8"/>
       <c r="E49" s="15"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="6">
         <v>49</v>
@@ -3839,7 +4218,7 @@
       <c r="D50" s="6"/>
       <c r="E50" s="14"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
       <c r="B51" s="8">
         <v>50</v>
@@ -3848,7 +4227,7 @@
       <c r="D51" s="8"/>
       <c r="E51" s="15"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="B52" s="6">
         <v>51</v>
@@ -3857,7 +4236,7 @@
       <c r="D52" s="6"/>
       <c r="E52" s="14"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
       <c r="B53" s="8">
         <v>52</v>
@@ -3866,7 +4245,7 @@
       <c r="D53" s="8"/>
       <c r="E53" s="15"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
       <c r="B54" s="6">
         <v>53</v>
@@ -3875,7 +4254,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="14"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
       <c r="B55" s="8">
         <v>54</v>
@@ -3884,7 +4263,7 @@
       <c r="D55" s="8"/>
       <c r="E55" s="15"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
       <c r="B56" s="6">
         <v>55</v>
@@ -3893,7 +4272,7 @@
       <c r="D56" s="6"/>
       <c r="E56" s="14"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="7"/>
       <c r="B57" s="8">
         <v>56</v>
@@ -3902,7 +4281,7 @@
       <c r="D57" s="8"/>
       <c r="E57" s="15"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
       <c r="B58" s="6">
         <v>57</v>
@@ -3911,7 +4290,7 @@
       <c r="D58" s="6"/>
       <c r="E58" s="14"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="7"/>
       <c r="B59" s="8">
         <v>58</v>
@@ -3920,7 +4299,7 @@
       <c r="D59" s="8"/>
       <c r="E59" s="15"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
       <c r="B60" s="6">
         <v>59</v>
@@ -3929,7 +4308,7 @@
       <c r="D60" s="6"/>
       <c r="E60" s="14"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="7"/>
       <c r="B61" s="8">
         <v>60</v>
@@ -3938,7 +4317,7 @@
       <c r="D61" s="8"/>
       <c r="E61" s="15"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="5"/>
       <c r="B62" s="6">
         <v>61</v>
@@ -3947,7 +4326,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="14"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="7"/>
       <c r="B63" s="8">
         <v>62</v>
@@ -3956,7 +4335,7 @@
       <c r="D63" s="8"/>
       <c r="E63" s="15"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
       <c r="B64" s="6">
         <v>63</v>
@@ -3965,7 +4344,7 @@
       <c r="D64" s="6"/>
       <c r="E64" s="14"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="7"/>
       <c r="B65" s="8">
         <v>64</v>
@@ -3974,7 +4353,7 @@
       <c r="D65" s="8"/>
       <c r="E65" s="15"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
       <c r="B66" s="6">
         <v>65</v>
@@ -3983,7 +4362,7 @@
       <c r="D66" s="6"/>
       <c r="E66" s="14"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="7"/>
       <c r="B67" s="8">
         <v>66</v>
@@ -3992,7 +4371,7 @@
       <c r="D67" s="8"/>
       <c r="E67" s="15"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="5"/>
       <c r="B68" s="6">
         <v>67</v>
@@ -4001,7 +4380,7 @@
       <c r="D68" s="6"/>
       <c r="E68" s="14"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="7"/>
       <c r="B69" s="8">
         <v>68</v>
@@ -4010,7 +4389,7 @@
       <c r="D69" s="8"/>
       <c r="E69" s="15"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="5"/>
       <c r="B70" s="6">
         <v>69</v>
@@ -4019,7 +4398,7 @@
       <c r="D70" s="6"/>
       <c r="E70" s="14"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="7"/>
       <c r="B71" s="8">
         <v>70</v>
@@ -4028,7 +4407,7 @@
       <c r="D71" s="8"/>
       <c r="E71" s="15"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="5"/>
       <c r="B72" s="6">
         <v>71</v>
@@ -4037,7 +4416,7 @@
       <c r="D72" s="6"/>
       <c r="E72" s="14"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="7"/>
       <c r="B73" s="8">
         <v>72</v>
@@ -4046,7 +4425,7 @@
       <c r="D73" s="8"/>
       <c r="E73" s="15"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
       <c r="B74" s="6">
         <v>73</v>
@@ -4055,7 +4434,7 @@
       <c r="D74" s="6"/>
       <c r="E74" s="14"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="7"/>
       <c r="B75" s="8">
         <v>74</v>
@@ -4064,7 +4443,7 @@
       <c r="D75" s="8"/>
       <c r="E75" s="15"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="5"/>
       <c r="B76" s="6">
         <v>75</v>
@@ -4073,7 +4452,7 @@
       <c r="D76" s="6"/>
       <c r="E76" s="14"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="7"/>
       <c r="B77" s="8">
         <v>76</v>
@@ -4082,7 +4461,7 @@
       <c r="D77" s="8"/>
       <c r="E77" s="15"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="5"/>
       <c r="B78" s="6">
         <v>77</v>
@@ -4091,7 +4470,7 @@
       <c r="D78" s="6"/>
       <c r="E78" s="14"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="7"/>
       <c r="B79" s="8">
         <v>78</v>
@@ -4100,7 +4479,7 @@
       <c r="D79" s="8"/>
       <c r="E79" s="15"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="5"/>
       <c r="B80" s="6">
         <v>79</v>
@@ -4109,7 +4488,7 @@
       <c r="D80" s="6"/>
       <c r="E80" s="14"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="7"/>
       <c r="B81" s="8">
         <v>80</v>

--- a/ISTDB/Resources/timetable.xlsx
+++ b/ISTDB/Resources/timetable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BrandanWalker\Documents\GitHub\ISTDB_2\ISTDB\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hamish.Baird/Documents/GitHub/ISTDB_2/ISTDB/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C31E64-B642-4596-BD41-C4ED5DAD89C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C26D67-7208-114D-801A-6A144DBF37FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="8" r:id="rId1"/>
@@ -19,22 +19,11 @@
     <sheet name="3" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="49">
   <si>
     <t>Session</t>
   </si>
@@ -178,6 +167,9 @@
   </si>
   <si>
     <t>Pre</t>
+  </si>
+  <si>
+    <t>khgvjgfcjgfjyf</t>
   </si>
 </sst>
 </file>
@@ -767,16 +759,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0730A3FC-C6CA-B14F-9960-F5E00466E064}">
   <dimension ref="A1:AJ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="I21" sqref="I20:I21"/>
+    <sheetView zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
@@ -793,7 +785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>5</v>
       </c>
@@ -810,7 +802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
@@ -827,7 +819,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
         <v>5</v>
       </c>
@@ -844,7 +836,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>5</v>
       </c>
@@ -861,7 +853,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
@@ -878,7 +870,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>5</v>
       </c>
@@ -895,7 +887,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>5</v>
       </c>
@@ -912,7 +904,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>5</v>
       </c>
@@ -929,7 +921,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>5</v>
       </c>
@@ -946,7 +938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
         <v>5</v>
       </c>
@@ -963,7 +955,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>5</v>
       </c>
@@ -980,7 +972,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>5</v>
       </c>
@@ -997,7 +989,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>5</v>
       </c>
@@ -1014,7 +1006,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
         <v>5</v>
       </c>
@@ -1031,7 +1023,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
         <v>5</v>
       </c>
@@ -1048,7 +1040,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
         <v>5</v>
       </c>
@@ -1065,7 +1057,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
         <v>5</v>
       </c>
@@ -1082,7 +1074,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
         <v>5</v>
       </c>
@@ -1099,7 +1091,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
         <v>5</v>
       </c>
@@ -1116,7 +1108,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
         <v>5</v>
       </c>
@@ -1133,7 +1125,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
         <v>5</v>
       </c>
@@ -1150,7 +1142,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
         <v>5</v>
       </c>
@@ -1167,7 +1159,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
         <v>5</v>
       </c>
@@ -1184,7 +1176,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
         <v>5</v>
       </c>
@@ -1201,7 +1193,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
         <v>5</v>
       </c>
@@ -1218,7 +1210,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
         <v>5</v>
       </c>
@@ -1235,7 +1227,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
         <v>5</v>
       </c>
@@ -1252,7 +1244,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>5</v>
       </c>
@@ -1269,7 +1261,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
         <v>5</v>
       </c>
@@ -1286,7 +1278,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>5</v>
       </c>
@@ -1303,7 +1295,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>5</v>
       </c>
@@ -1320,7 +1312,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>5</v>
       </c>
@@ -1337,7 +1329,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
         <v>5</v>
       </c>
@@ -1354,7 +1346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
         <v>5</v>
       </c>
@@ -1371,7 +1363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
         <v>5</v>
       </c>
@@ -1388,7 +1380,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
         <v>5</v>
       </c>
@@ -1405,7 +1397,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
         <v>5</v>
       </c>
@@ -1422,7 +1414,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
         <v>5</v>
       </c>
@@ -1439,7 +1431,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
         <v>5</v>
       </c>
@@ -1456,7 +1448,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
         <v>5</v>
       </c>
@@ -1473,7 +1465,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
         <v>5</v>
       </c>
@@ -1495,7 +1487,7 @@
       <c r="AI42" s="3"/>
       <c r="AJ42" s="3"/>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
         <v>5</v>
       </c>
@@ -1512,7 +1504,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
         <v>5</v>
       </c>
@@ -1529,7 +1521,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
         <v>5</v>
       </c>
@@ -1546,7 +1538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
         <v>5</v>
       </c>
@@ -1563,7 +1555,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
         <v>5</v>
       </c>
@@ -1580,7 +1572,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
         <v>5</v>
       </c>
@@ -1597,7 +1589,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
         <v>5</v>
       </c>
@@ -1614,7 +1606,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
         <v>5</v>
       </c>
@@ -1636,7 +1628,7 @@
       <c r="AI50" s="3"/>
       <c r="AJ50" s="3"/>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
         <v>5</v>
       </c>
@@ -1653,7 +1645,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
         <v>5</v>
       </c>
@@ -1670,7 +1662,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
         <v>5</v>
       </c>
@@ -1687,7 +1679,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
         <v>5</v>
       </c>
@@ -1704,7 +1696,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
         <v>5</v>
       </c>
@@ -1721,7 +1713,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
         <v>5</v>
       </c>
@@ -1738,7 +1730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
         <v>5</v>
       </c>
@@ -1755,7 +1747,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A58" s="20" t="s">
         <v>5</v>
       </c>
@@ -1777,7 +1769,7 @@
       <c r="AI58" s="3"/>
       <c r="AJ58" s="3"/>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A59" s="20" t="s">
         <v>5</v>
       </c>
@@ -1794,7 +1786,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A60" s="20" t="s">
         <v>5</v>
       </c>
@@ -1811,7 +1803,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A61" s="20" t="s">
         <v>5</v>
       </c>
@@ -1828,7 +1820,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A62" s="20" t="s">
         <v>5</v>
       </c>
@@ -1845,7 +1837,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A63" s="20" t="s">
         <v>5</v>
       </c>
@@ -1862,7 +1854,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A64" s="20" t="s">
         <v>5</v>
       </c>
@@ -1879,7 +1871,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A65" s="20" t="s">
         <v>5</v>
       </c>
@@ -1896,7 +1888,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A66" s="20" t="s">
         <v>5</v>
       </c>
@@ -1918,7 +1910,7 @@
       <c r="AI66" s="3"/>
       <c r="AJ66" s="3"/>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A67" s="20" t="s">
         <v>5</v>
       </c>
@@ -1935,7 +1927,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A68" s="20" t="s">
         <v>5</v>
       </c>
@@ -1952,7 +1944,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A69" s="20" t="s">
         <v>5</v>
       </c>
@@ -1969,7 +1961,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A70" s="20" t="s">
         <v>5</v>
       </c>
@@ -1986,7 +1978,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A71" s="20" t="s">
         <v>5</v>
       </c>
@@ -2003,7 +1995,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A72" s="20" t="s">
         <v>5</v>
       </c>
@@ -2020,7 +2012,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A73" s="20" t="s">
         <v>5</v>
       </c>
@@ -2037,7 +2029,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A74" s="20" t="s">
         <v>5</v>
       </c>
@@ -2059,7 +2051,7 @@
       <c r="AI74" s="3"/>
       <c r="AJ74" s="3"/>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A75" s="20" t="s">
         <v>5</v>
       </c>
@@ -2076,7 +2068,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A76" s="20" t="s">
         <v>5</v>
       </c>
@@ -2093,7 +2085,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A77" s="20" t="s">
         <v>5</v>
       </c>
@@ -2110,7 +2102,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A78" s="20" t="s">
         <v>5</v>
       </c>
@@ -2127,7 +2119,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A79" s="20" t="s">
         <v>5</v>
       </c>
@@ -2144,7 +2136,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A80" s="20" t="s">
         <v>5</v>
       </c>
@@ -2161,7 +2153,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="20" t="s">
         <v>5</v>
       </c>
@@ -2187,19 +2179,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A581B009-570A-452C-BF5F-AF9BB96CD8F3}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView zoomScale="134" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2216,8 +2208,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
@@ -2225,7 +2219,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
         <f>B2+1</f>
@@ -2235,7 +2229,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <f t="shared" ref="B4:B29" si="0">B3+1</f>
@@ -2245,7 +2239,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <f t="shared" si="0"/>
@@ -2255,7 +2249,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
         <f t="shared" si="0"/>
@@ -2265,7 +2259,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
@@ -2275,7 +2269,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
@@ -2285,7 +2279,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
@@ -2295,7 +2289,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
@@ -2303,7 +2297,7 @@
       </c>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
@@ -2311,7 +2305,7 @@
       </c>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1">
         <f t="shared" si="0"/>
@@ -2319,7 +2313,7 @@
       </c>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1">
         <f t="shared" si="0"/>
@@ -2327,7 +2321,7 @@
       </c>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1">
         <f t="shared" si="0"/>
@@ -2335,7 +2329,7 @@
       </c>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1">
         <f t="shared" si="0"/>
@@ -2343,7 +2337,7 @@
       </c>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1">
         <f t="shared" si="0"/>
@@ -2352,7 +2346,7 @@
       <c r="C16" s="4"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1">
         <f t="shared" si="0"/>
@@ -2362,7 +2356,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1">
         <f t="shared" si="0"/>
@@ -2372,7 +2366,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1">
         <f t="shared" si="0"/>
@@ -2382,7 +2376,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1">
         <f t="shared" si="0"/>
@@ -2392,7 +2386,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1">
         <f t="shared" si="0"/>
@@ -2402,7 +2396,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1">
         <f t="shared" si="0"/>
@@ -2412,7 +2406,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1">
         <f t="shared" si="0"/>
@@ -2422,7 +2416,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1">
         <f t="shared" si="0"/>
@@ -2432,7 +2426,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1">
         <f>B24+1</f>
@@ -2442,7 +2436,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1">
         <f t="shared" si="0"/>
@@ -2452,7 +2446,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1">
         <f t="shared" si="0"/>
@@ -2462,7 +2456,7 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1">
         <f t="shared" si="0"/>
@@ -2472,7 +2466,7 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1">
         <f t="shared" si="0"/>
@@ -2482,7 +2476,7 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1">
         <f t="shared" ref="B30:B71" si="1">B29+1</f>
@@ -2492,7 +2486,7 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1">
         <f t="shared" si="1"/>
@@ -2502,7 +2496,7 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1">
         <f t="shared" si="1"/>
@@ -2512,7 +2506,7 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1">
         <f t="shared" si="1"/>
@@ -2522,7 +2516,7 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1">
         <f t="shared" si="1"/>
@@ -2530,7 +2524,7 @@
       </c>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1">
         <f t="shared" si="1"/>
@@ -2538,7 +2532,7 @@
       </c>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1">
         <f t="shared" si="1"/>
@@ -2546,7 +2540,7 @@
       </c>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1">
         <f t="shared" si="1"/>
@@ -2554,7 +2548,7 @@
       </c>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1">
         <f t="shared" si="1"/>
@@ -2562,7 +2556,7 @@
       </c>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1">
         <f t="shared" si="1"/>
@@ -2570,7 +2564,7 @@
       </c>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1">
         <f t="shared" si="1"/>
@@ -2579,7 +2573,7 @@
       <c r="C40" s="2"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1">
         <f t="shared" si="1"/>
@@ -2589,7 +2583,7 @@
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1">
         <f t="shared" ref="B42:B50" si="2">B41+1</f>
@@ -2599,7 +2593,7 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1">
         <f t="shared" si="2"/>
@@ -2609,7 +2603,7 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1">
         <f t="shared" si="2"/>
@@ -2619,7 +2613,7 @@
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1">
         <f t="shared" si="2"/>
@@ -2629,7 +2623,7 @@
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1">
         <f t="shared" si="2"/>
@@ -2639,7 +2633,7 @@
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1">
         <f t="shared" si="2"/>
@@ -2649,7 +2643,7 @@
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1">
         <f t="shared" si="2"/>
@@ -2659,7 +2653,7 @@
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1">
         <f t="shared" si="2"/>
@@ -2669,7 +2663,7 @@
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1">
         <f t="shared" si="2"/>
@@ -2679,7 +2673,7 @@
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1">
         <f t="shared" si="1"/>
@@ -2689,7 +2683,7 @@
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1">
         <f t="shared" si="1"/>
@@ -2699,7 +2693,7 @@
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1">
         <f t="shared" si="1"/>
@@ -2709,7 +2703,7 @@
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1">
         <f t="shared" si="1"/>
@@ -2719,7 +2713,7 @@
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1">
         <f t="shared" si="1"/>
@@ -2729,7 +2723,7 @@
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1">
         <f t="shared" si="1"/>
@@ -2739,7 +2733,7 @@
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1">
         <f>B56+1</f>
@@ -2749,7 +2743,7 @@
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1">
         <f t="shared" si="1"/>
@@ -2759,7 +2753,7 @@
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1">
         <f t="shared" si="1"/>
@@ -2769,7 +2763,7 @@
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1">
         <f t="shared" si="1"/>
@@ -2779,7 +2773,7 @@
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1">
         <f t="shared" si="1"/>
@@ -2789,7 +2783,7 @@
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1">
         <f t="shared" si="1"/>
@@ -2799,7 +2793,7 @@
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1">
         <f t="shared" si="1"/>
@@ -2809,7 +2803,7 @@
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1">
         <f t="shared" si="1"/>
@@ -2819,7 +2813,7 @@
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1">
         <f t="shared" si="1"/>
@@ -2829,7 +2823,7 @@
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1">
         <f t="shared" si="1"/>
@@ -2839,7 +2833,7 @@
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1">
         <f t="shared" si="1"/>
@@ -2849,7 +2843,7 @@
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1">
         <f t="shared" si="1"/>
@@ -2859,7 +2853,7 @@
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1">
         <f t="shared" si="1"/>
@@ -2869,7 +2863,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1">
         <f t="shared" si="1"/>
@@ -2879,7 +2873,7 @@
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1">
         <f t="shared" si="1"/>
@@ -2889,7 +2883,7 @@
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1">
         <f t="shared" ref="B72:B81" si="3">B71+1</f>
@@ -2899,7 +2893,7 @@
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1">
         <f t="shared" si="3"/>
@@ -2909,7 +2903,7 @@
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1">
         <f t="shared" si="3"/>
@@ -2919,7 +2913,7 @@
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1">
         <f t="shared" si="3"/>
@@ -2929,7 +2923,7 @@
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1">
         <f t="shared" si="3"/>
@@ -2939,7 +2933,7 @@
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1">
         <f t="shared" si="3"/>
@@ -2949,7 +2943,7 @@
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1">
         <f t="shared" si="3"/>
@@ -2959,7 +2953,7 @@
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1">
         <f t="shared" si="3"/>
@@ -2969,7 +2963,7 @@
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1">
         <f t="shared" si="3"/>
@@ -2979,7 +2973,7 @@
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1">
         <f t="shared" si="3"/>
@@ -3003,12 +2997,12 @@
   <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E81"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
@@ -3025,7 +3019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6">
         <v>1</v>
@@ -3034,7 +3028,7 @@
       <c r="D2" s="6"/>
       <c r="E2" s="14"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="8">
         <v>2</v>
@@ -3043,7 +3037,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="15"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="6">
         <v>3</v>
@@ -3052,7 +3046,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="14"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="8">
         <v>4</v>
@@ -3061,7 +3055,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="15"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="6">
         <v>5</v>
@@ -3070,7 +3064,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="14"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="8">
         <v>6</v>
@@ -3079,7 +3073,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="6">
         <v>7</v>
@@ -3088,7 +3082,7 @@
       <c r="D8" s="6"/>
       <c r="E8" s="14"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="8">
         <v>8</v>
@@ -3097,7 +3091,7 @@
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <v>9</v>
@@ -3106,7 +3100,7 @@
       <c r="D10" s="6"/>
       <c r="E10" s="14"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="8">
         <v>10</v>
@@ -3115,7 +3109,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="15"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="6">
         <v>11</v>
@@ -3124,7 +3118,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="14"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="8">
         <v>12</v>
@@ -3133,7 +3127,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="6">
         <v>13</v>
@@ -3142,7 +3136,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="8">
         <v>14</v>
@@ -3151,7 +3145,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="6">
         <v>15</v>
@@ -3160,7 +3154,7 @@
       <c r="D16" s="6"/>
       <c r="E16" s="19"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="8">
         <v>16</v>
@@ -3169,7 +3163,7 @@
       <c r="D17" s="10"/>
       <c r="E17" s="16"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="6">
         <v>17</v>
@@ -3178,7 +3172,7 @@
       <c r="D18" s="6"/>
       <c r="E18" s="14"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="8">
         <v>18</v>
@@ -3187,7 +3181,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="15"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="6">
         <v>19</v>
@@ -3196,7 +3190,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="14"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="8">
         <v>20</v>
@@ -3205,7 +3199,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="15"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="6">
         <v>21</v>
@@ -3214,7 +3208,7 @@
       <c r="D22" s="6"/>
       <c r="E22" s="14"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="8">
         <v>22</v>
@@ -3223,7 +3217,7 @@
       <c r="D23" s="8"/>
       <c r="E23" s="15"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="6">
         <v>23</v>
@@ -3232,7 +3226,7 @@
       <c r="D24" s="6"/>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="8">
         <v>24</v>
@@ -3241,7 +3235,7 @@
       <c r="D25" s="8"/>
       <c r="E25" s="15"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <v>25</v>
@@ -3250,7 +3244,7 @@
       <c r="D26" s="6"/>
       <c r="E26" s="14"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="B27" s="8">
         <v>26</v>
@@ -3259,7 +3253,7 @@
       <c r="D27" s="8"/>
       <c r="E27" s="15"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="6">
         <v>27</v>
@@ -3268,7 +3262,7 @@
       <c r="D28" s="6"/>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="8">
         <v>28</v>
@@ -3277,7 +3271,7 @@
       <c r="D29" s="8"/>
       <c r="E29" s="15"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="6">
         <v>29</v>
@@ -3286,7 +3280,7 @@
       <c r="D30" s="6"/>
       <c r="E30" s="14"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" s="8">
         <v>30</v>
@@ -3295,7 +3289,7 @@
       <c r="D31" s="8"/>
       <c r="E31" s="15"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="6">
         <v>31</v>
@@ -3304,7 +3298,7 @@
       <c r="D32" s="6"/>
       <c r="E32" s="14"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
       <c r="B33" s="8">
         <v>32</v>
@@ -3313,7 +3307,7 @@
       <c r="D33" s="8"/>
       <c r="E33" s="15"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
         <v>33</v>
@@ -3322,7 +3316,7 @@
       <c r="D34" s="6"/>
       <c r="E34" s="14"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
       <c r="B35" s="8">
         <v>34</v>
@@ -3331,7 +3325,7 @@
       <c r="D35" s="8"/>
       <c r="E35" s="15"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
         <v>35</v>
@@ -3340,7 +3334,7 @@
       <c r="D36" s="6"/>
       <c r="E36" s="14"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
       <c r="B37" s="8">
         <v>36</v>
@@ -3349,7 +3343,7 @@
       <c r="D37" s="8"/>
       <c r="E37" s="15"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="6">
         <v>37</v>
@@ -3358,7 +3352,7 @@
       <c r="D38" s="6"/>
       <c r="E38" s="14"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="7"/>
       <c r="B39" s="8">
         <v>38</v>
@@ -3367,7 +3361,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="15"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
       <c r="B40" s="6">
         <v>39</v>
@@ -3376,7 +3370,7 @@
       <c r="D40" s="6"/>
       <c r="E40" s="19"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="7"/>
       <c r="B41" s="8">
         <v>40</v>
@@ -3385,7 +3379,7 @@
       <c r="D41" s="10"/>
       <c r="E41" s="16"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="6">
         <v>41</v>
@@ -3394,7 +3388,7 @@
       <c r="D42" s="6"/>
       <c r="E42" s="14"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
       <c r="B43" s="8">
         <v>42</v>
@@ -3403,7 +3397,7 @@
       <c r="D43" s="8"/>
       <c r="E43" s="15"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" s="6">
         <v>43</v>
@@ -3412,7 +3406,7 @@
       <c r="D44" s="6"/>
       <c r="E44" s="14"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="7"/>
       <c r="B45" s="8">
         <v>44</v>
@@ -3421,7 +3415,7 @@
       <c r="D45" s="8"/>
       <c r="E45" s="15"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
       <c r="B46" s="6">
         <v>45</v>
@@ -3430,7 +3424,7 @@
       <c r="D46" s="6"/>
       <c r="E46" s="14"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="7"/>
       <c r="B47" s="8">
         <v>46</v>
@@ -3439,7 +3433,7 @@
       <c r="D47" s="8"/>
       <c r="E47" s="15"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
       <c r="B48" s="6">
         <v>47</v>
@@ -3448,7 +3442,7 @@
       <c r="D48" s="6"/>
       <c r="E48" s="14"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
       <c r="B49" s="8">
         <v>48</v>
@@ -3457,7 +3451,7 @@
       <c r="D49" s="8"/>
       <c r="E49" s="15"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
       <c r="B50" s="6">
         <v>49</v>
@@ -3466,7 +3460,7 @@
       <c r="D50" s="6"/>
       <c r="E50" s="14"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
       <c r="B51" s="8">
         <v>50</v>
@@ -3475,7 +3469,7 @@
       <c r="D51" s="8"/>
       <c r="E51" s="15"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
       <c r="B52" s="6">
         <v>51</v>
@@ -3484,7 +3478,7 @@
       <c r="D52" s="6"/>
       <c r="E52" s="14"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
       <c r="B53" s="8">
         <v>52</v>
@@ -3493,7 +3487,7 @@
       <c r="D53" s="8"/>
       <c r="E53" s="15"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
       <c r="B54" s="6">
         <v>53</v>
@@ -3502,7 +3496,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="14"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="7"/>
       <c r="B55" s="8">
         <v>54</v>
@@ -3511,7 +3505,7 @@
       <c r="D55" s="8"/>
       <c r="E55" s="15"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
       <c r="B56" s="6">
         <v>55</v>
@@ -3520,7 +3514,7 @@
       <c r="D56" s="6"/>
       <c r="E56" s="14"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
       <c r="B57" s="8">
         <v>56</v>
@@ -3529,7 +3523,7 @@
       <c r="D57" s="8"/>
       <c r="E57" s="15"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="5"/>
       <c r="B58" s="6">
         <v>57</v>
@@ -3538,7 +3532,7 @@
       <c r="D58" s="6"/>
       <c r="E58" s="14"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="7"/>
       <c r="B59" s="8">
         <v>58</v>
@@ -3547,7 +3541,7 @@
       <c r="D59" s="8"/>
       <c r="E59" s="15"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
       <c r="B60" s="6">
         <v>59</v>
@@ -3556,7 +3550,7 @@
       <c r="D60" s="6"/>
       <c r="E60" s="14"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="7"/>
       <c r="B61" s="8">
         <v>60</v>
@@ -3565,7 +3559,7 @@
       <c r="D61" s="8"/>
       <c r="E61" s="15"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
       <c r="B62" s="6">
         <v>61</v>
@@ -3574,7 +3568,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="14"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="7"/>
       <c r="B63" s="8">
         <v>62</v>
@@ -3583,7 +3577,7 @@
       <c r="D63" s="8"/>
       <c r="E63" s="15"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
       <c r="B64" s="6">
         <v>63</v>
@@ -3592,7 +3586,7 @@
       <c r="D64" s="6"/>
       <c r="E64" s="14"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="7"/>
       <c r="B65" s="8">
         <v>64</v>
@@ -3601,7 +3595,7 @@
       <c r="D65" s="8"/>
       <c r="E65" s="15"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
       <c r="B66" s="6">
         <v>65</v>
@@ -3610,7 +3604,7 @@
       <c r="D66" s="6"/>
       <c r="E66" s="14"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="7"/>
       <c r="B67" s="8">
         <v>66</v>
@@ -3619,7 +3613,7 @@
       <c r="D67" s="8"/>
       <c r="E67" s="15"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
       <c r="B68" s="6">
         <v>67</v>
@@ -3628,7 +3622,7 @@
       <c r="D68" s="6"/>
       <c r="E68" s="14"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="7"/>
       <c r="B69" s="8">
         <v>68</v>
@@ -3637,7 +3631,7 @@
       <c r="D69" s="8"/>
       <c r="E69" s="15"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
       <c r="B70" s="6">
         <v>69</v>
@@ -3646,7 +3640,7 @@
       <c r="D70" s="6"/>
       <c r="E70" s="14"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="7"/>
       <c r="B71" s="8">
         <v>70</v>
@@ -3655,7 +3649,7 @@
       <c r="D71" s="8"/>
       <c r="E71" s="15"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
       <c r="B72" s="6">
         <v>71</v>
@@ -3664,7 +3658,7 @@
       <c r="D72" s="6"/>
       <c r="E72" s="14"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="7"/>
       <c r="B73" s="8">
         <v>72</v>
@@ -3673,7 +3667,7 @@
       <c r="D73" s="8"/>
       <c r="E73" s="15"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
       <c r="B74" s="6">
         <v>73</v>
@@ -3682,7 +3676,7 @@
       <c r="D74" s="6"/>
       <c r="E74" s="14"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="7"/>
       <c r="B75" s="8">
         <v>74</v>
@@ -3691,7 +3685,7 @@
       <c r="D75" s="8"/>
       <c r="E75" s="15"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="5"/>
       <c r="B76" s="6">
         <v>75</v>
@@ -3700,7 +3694,7 @@
       <c r="D76" s="6"/>
       <c r="E76" s="14"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="7"/>
       <c r="B77" s="8">
         <v>76</v>
@@ -3709,7 +3703,7 @@
       <c r="D77" s="8"/>
       <c r="E77" s="15"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
       <c r="B78" s="6">
         <v>77</v>
@@ -3718,7 +3712,7 @@
       <c r="D78" s="6"/>
       <c r="E78" s="14"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="7"/>
       <c r="B79" s="8">
         <v>78</v>
@@ -3727,7 +3721,7 @@
       <c r="D79" s="8"/>
       <c r="E79" s="15"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
       <c r="B80" s="6">
         <v>79</v>
@@ -3736,7 +3730,7 @@
       <c r="D80" s="6"/>
       <c r="E80" s="14"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="7"/>
       <c r="B81" s="8">
         <v>80</v>
@@ -3758,9 +3752,9 @@
       <selection sqref="A1:E81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
@@ -3777,7 +3771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6">
         <v>1</v>
@@ -3786,7 +3780,7 @@
       <c r="D2" s="6"/>
       <c r="E2" s="14"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="8">
         <v>2</v>
@@ -3795,7 +3789,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="15"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="6">
         <v>3</v>
@@ -3804,7 +3798,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="14"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="8">
         <v>4</v>
@@ -3813,7 +3807,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="15"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="6">
         <v>5</v>
@@ -3822,7 +3816,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="14"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="8">
         <v>6</v>
@@ -3831,7 +3825,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="6">
         <v>7</v>
@@ -3840,7 +3834,7 @@
       <c r="D8" s="6"/>
       <c r="E8" s="14"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="8">
         <v>8</v>
@@ -3849,7 +3843,7 @@
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <v>9</v>
@@ -3858,7 +3852,7 @@
       <c r="D10" s="6"/>
       <c r="E10" s="14"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="8">
         <v>10</v>
@@ -3867,7 +3861,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="15"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="6">
         <v>11</v>
@@ -3876,7 +3870,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="14"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="8">
         <v>12</v>
@@ -3885,7 +3879,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="6">
         <v>13</v>
@@ -3894,7 +3888,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="8">
         <v>14</v>
@@ -3903,7 +3897,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="6">
         <v>15</v>
@@ -3912,7 +3906,7 @@
       <c r="D16" s="6"/>
       <c r="E16" s="19"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="8">
         <v>16</v>
@@ -3921,7 +3915,7 @@
       <c r="D17" s="10"/>
       <c r="E17" s="16"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="6">
         <v>17</v>
@@ -3930,7 +3924,7 @@
       <c r="D18" s="6"/>
       <c r="E18" s="14"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="8">
         <v>18</v>
@@ -3939,7 +3933,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="15"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="6">
         <v>19</v>
@@ -3948,7 +3942,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="14"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="8">
         <v>20</v>
@@ -3957,7 +3951,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="15"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="6">
         <v>21</v>
@@ -3966,7 +3960,7 @@
       <c r="D22" s="6"/>
       <c r="E22" s="14"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="8">
         <v>22</v>
@@ -3975,7 +3969,7 @@
       <c r="D23" s="8"/>
       <c r="E23" s="15"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="6">
         <v>23</v>
@@ -3984,7 +3978,7 @@
       <c r="D24" s="6"/>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="8">
         <v>24</v>
@@ -3993,7 +3987,7 @@
       <c r="D25" s="8"/>
       <c r="E25" s="15"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <v>25</v>
@@ -4002,7 +3996,7 @@
       <c r="D26" s="6"/>
       <c r="E26" s="14"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="B27" s="8">
         <v>26</v>
@@ -4011,7 +4005,7 @@
       <c r="D27" s="8"/>
       <c r="E27" s="15"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="6">
         <v>27</v>
@@ -4020,7 +4014,7 @@
       <c r="D28" s="6"/>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="8">
         <v>28</v>
@@ -4029,7 +4023,7 @@
       <c r="D29" s="8"/>
       <c r="E29" s="15"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="6">
         <v>29</v>
@@ -4038,7 +4032,7 @@
       <c r="D30" s="6"/>
       <c r="E30" s="14"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" s="8">
         <v>30</v>
@@ -4047,7 +4041,7 @@
       <c r="D31" s="8"/>
       <c r="E31" s="15"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="6">
         <v>31</v>
@@ -4056,7 +4050,7 @@
       <c r="D32" s="6"/>
       <c r="E32" s="14"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
       <c r="B33" s="8">
         <v>32</v>
@@ -4065,7 +4059,7 @@
       <c r="D33" s="8"/>
       <c r="E33" s="15"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
         <v>33</v>
@@ -4074,7 +4068,7 @@
       <c r="D34" s="6"/>
       <c r="E34" s="14"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
       <c r="B35" s="8">
         <v>34</v>
@@ -4083,7 +4077,7 @@
       <c r="D35" s="8"/>
       <c r="E35" s="15"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
         <v>35</v>
@@ -4092,7 +4086,7 @@
       <c r="D36" s="6"/>
       <c r="E36" s="14"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
       <c r="B37" s="8">
         <v>36</v>
@@ -4101,7 +4095,7 @@
       <c r="D37" s="8"/>
       <c r="E37" s="15"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="6">
         <v>37</v>
@@ -4110,7 +4104,7 @@
       <c r="D38" s="6"/>
       <c r="E38" s="14"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="7"/>
       <c r="B39" s="8">
         <v>38</v>
@@ -4119,7 +4113,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="15"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
       <c r="B40" s="6">
         <v>39</v>
@@ -4128,7 +4122,7 @@
       <c r="D40" s="6"/>
       <c r="E40" s="19"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="7"/>
       <c r="B41" s="8">
         <v>40</v>
@@ -4137,7 +4131,7 @@
       <c r="D41" s="10"/>
       <c r="E41" s="16"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="6">
         <v>41</v>
@@ -4146,7 +4140,7 @@
       <c r="D42" s="6"/>
       <c r="E42" s="14"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
       <c r="B43" s="8">
         <v>42</v>
@@ -4155,7 +4149,7 @@
       <c r="D43" s="8"/>
       <c r="E43" s="15"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" s="6">
         <v>43</v>
@@ -4164,7 +4158,7 @@
       <c r="D44" s="6"/>
       <c r="E44" s="14"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="7"/>
       <c r="B45" s="8">
         <v>44</v>
@@ -4173,7 +4167,7 @@
       <c r="D45" s="8"/>
       <c r="E45" s="15"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
       <c r="B46" s="6">
         <v>45</v>
@@ -4182,7 +4176,7 @@
       <c r="D46" s="6"/>
       <c r="E46" s="14"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="7"/>
       <c r="B47" s="8">
         <v>46</v>
@@ -4191,7 +4185,7 @@
       <c r="D47" s="8"/>
       <c r="E47" s="15"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
       <c r="B48" s="6">
         <v>47</v>
@@ -4200,7 +4194,7 @@
       <c r="D48" s="6"/>
       <c r="E48" s="14"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
       <c r="B49" s="8">
         <v>48</v>
@@ -4209,7 +4203,7 @@
       <c r="D49" s="8"/>
       <c r="E49" s="15"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
       <c r="B50" s="6">
         <v>49</v>
@@ -4218,7 +4212,7 @@
       <c r="D50" s="6"/>
       <c r="E50" s="14"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
       <c r="B51" s="8">
         <v>50</v>
@@ -4227,7 +4221,7 @@
       <c r="D51" s="8"/>
       <c r="E51" s="15"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
       <c r="B52" s="6">
         <v>51</v>
@@ -4236,7 +4230,7 @@
       <c r="D52" s="6"/>
       <c r="E52" s="14"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
       <c r="B53" s="8">
         <v>52</v>
@@ -4245,7 +4239,7 @@
       <c r="D53" s="8"/>
       <c r="E53" s="15"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
       <c r="B54" s="6">
         <v>53</v>
@@ -4254,7 +4248,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="14"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="7"/>
       <c r="B55" s="8">
         <v>54</v>
@@ -4263,7 +4257,7 @@
       <c r="D55" s="8"/>
       <c r="E55" s="15"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
       <c r="B56" s="6">
         <v>55</v>
@@ -4272,7 +4266,7 @@
       <c r="D56" s="6"/>
       <c r="E56" s="14"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
       <c r="B57" s="8">
         <v>56</v>
@@ -4281,7 +4275,7 @@
       <c r="D57" s="8"/>
       <c r="E57" s="15"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="5"/>
       <c r="B58" s="6">
         <v>57</v>
@@ -4290,7 +4284,7 @@
       <c r="D58" s="6"/>
       <c r="E58" s="14"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="7"/>
       <c r="B59" s="8">
         <v>58</v>
@@ -4299,7 +4293,7 @@
       <c r="D59" s="8"/>
       <c r="E59" s="15"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
       <c r="B60" s="6">
         <v>59</v>
@@ -4308,7 +4302,7 @@
       <c r="D60" s="6"/>
       <c r="E60" s="14"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="7"/>
       <c r="B61" s="8">
         <v>60</v>
@@ -4317,7 +4311,7 @@
       <c r="D61" s="8"/>
       <c r="E61" s="15"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
       <c r="B62" s="6">
         <v>61</v>
@@ -4326,7 +4320,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="14"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="7"/>
       <c r="B63" s="8">
         <v>62</v>
@@ -4335,7 +4329,7 @@
       <c r="D63" s="8"/>
       <c r="E63" s="15"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
       <c r="B64" s="6">
         <v>63</v>
@@ -4344,7 +4338,7 @@
       <c r="D64" s="6"/>
       <c r="E64" s="14"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="7"/>
       <c r="B65" s="8">
         <v>64</v>
@@ -4353,7 +4347,7 @@
       <c r="D65" s="8"/>
       <c r="E65" s="15"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
       <c r="B66" s="6">
         <v>65</v>
@@ -4362,7 +4356,7 @@
       <c r="D66" s="6"/>
       <c r="E66" s="14"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="7"/>
       <c r="B67" s="8">
         <v>66</v>
@@ -4371,7 +4365,7 @@
       <c r="D67" s="8"/>
       <c r="E67" s="15"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
       <c r="B68" s="6">
         <v>67</v>
@@ -4380,7 +4374,7 @@
       <c r="D68" s="6"/>
       <c r="E68" s="14"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="7"/>
       <c r="B69" s="8">
         <v>68</v>
@@ -4389,7 +4383,7 @@
       <c r="D69" s="8"/>
       <c r="E69" s="15"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
       <c r="B70" s="6">
         <v>69</v>
@@ -4398,7 +4392,7 @@
       <c r="D70" s="6"/>
       <c r="E70" s="14"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="7"/>
       <c r="B71" s="8">
         <v>70</v>
@@ -4407,7 +4401,7 @@
       <c r="D71" s="8"/>
       <c r="E71" s="15"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
       <c r="B72" s="6">
         <v>71</v>
@@ -4416,7 +4410,7 @@
       <c r="D72" s="6"/>
       <c r="E72" s="14"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="7"/>
       <c r="B73" s="8">
         <v>72</v>
@@ -4425,7 +4419,7 @@
       <c r="D73" s="8"/>
       <c r="E73" s="15"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
       <c r="B74" s="6">
         <v>73</v>
@@ -4434,7 +4428,7 @@
       <c r="D74" s="6"/>
       <c r="E74" s="14"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="7"/>
       <c r="B75" s="8">
         <v>74</v>
@@ -4443,7 +4437,7 @@
       <c r="D75" s="8"/>
       <c r="E75" s="15"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="5"/>
       <c r="B76" s="6">
         <v>75</v>
@@ -4452,7 +4446,7 @@
       <c r="D76" s="6"/>
       <c r="E76" s="14"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="7"/>
       <c r="B77" s="8">
         <v>76</v>
@@ -4461,7 +4455,7 @@
       <c r="D77" s="8"/>
       <c r="E77" s="15"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
       <c r="B78" s="6">
         <v>77</v>
@@ -4470,7 +4464,7 @@
       <c r="D78" s="6"/>
       <c r="E78" s="14"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="7"/>
       <c r="B79" s="8">
         <v>78</v>
@@ -4479,7 +4473,7 @@
       <c r="D79" s="8"/>
       <c r="E79" s="15"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
       <c r="B80" s="6">
         <v>79</v>
@@ -4488,7 +4482,7 @@
       <c r="D80" s="6"/>
       <c r="E80" s="14"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="7"/>
       <c r="B81" s="8">
         <v>80</v>

--- a/ISTDB/Resources/timetable.xlsx
+++ b/ISTDB/Resources/timetable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hamish.Baird/Documents/GitHub/ISTDB_2/ISTDB/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C26D67-7208-114D-801A-6A144DBF37FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B5672C-30DB-1D40-8C41-0C77F22CC970}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="57">
   <si>
     <t>Session</t>
   </si>
@@ -169,7 +169,31 @@
     <t>Pre</t>
   </si>
   <si>
-    <t>khgvjgfcjgfjyf</t>
+    <t>Luciano Gordon</t>
+  </si>
+  <si>
+    <t>MAT.I</t>
+  </si>
+  <si>
+    <t>S15</t>
+  </si>
+  <si>
+    <t>JeT</t>
+  </si>
+  <si>
+    <t>EHI.E1</t>
+  </si>
+  <si>
+    <t>S16</t>
+  </si>
+  <si>
+    <t>PAS.E2</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C9</t>
   </si>
 </sst>
 </file>
@@ -453,7 +477,7 @@
       <calculatedColumnFormula>B1+1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{3B9F7D0D-AECE-49F7-ABAA-9DF9E2648D84}" name="Teacher" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{25F95B75-1A0A-4832-9C48-B68B65207912}" name="Session2" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{25F95B75-1A0A-4832-9C48-B68B65207912}" name="Class" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{5ECA5331-885C-4179-A866-80A9377B3AAD}" name="Room" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2177,10 +2201,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A581B009-570A-452C-BF5F-AF9BB96CD8F3}">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2202,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -2215,317 +2239,596 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B3" s="1">
         <f>B2+1</f>
         <v>2</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B4" s="1">
         <f t="shared" ref="B4:B29" si="0">B3+1</f>
         <v>3</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="E16" s="3"/>
+      <c r="C16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="C17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B25" s="1">
         <f>B24+1</f>
         <v>24</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B30" s="1">
         <f t="shared" ref="B30:B71" si="1">B29+1</f>
         <v>29</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
+      <c r="A31" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B31" s="1">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
+      <c r="A32" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B32" s="1">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
+      <c r="A33" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B33" s="1">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
+      <c r="A34" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B34" s="1">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="C34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
+      <c r="A35" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B35" s="1">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -2533,7 +2836,9 @@
       <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
+      <c r="A36" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B36" s="1">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -2541,7 +2846,9 @@
       <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
+      <c r="A37" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B37" s="1">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -2549,7 +2856,9 @@
       <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
+      <c r="A38" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B38" s="1">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -2557,15 +2866,27 @@
       <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
+      <c r="A39" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B39" s="1">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="C39" s="2"/>
+      <c r="C39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B40" s="1">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -2574,7 +2895,9 @@
       <c r="E40" s="3"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
+      <c r="A41" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B41" s="1">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -2584,17 +2907,27 @@
       <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
+      <c r="A42" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B42" s="1">
         <f t="shared" ref="B42:B50" si="2">B41+1</f>
         <v>41</v>
       </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B43" s="1">
         <f t="shared" si="2"/>
         <v>42</v>
@@ -2604,7 +2937,9 @@
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
+      <c r="A44" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B44" s="1">
         <f t="shared" si="2"/>
         <v>43</v>
@@ -2614,7 +2949,9 @@
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
+      <c r="A45" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B45" s="1">
         <f t="shared" si="2"/>
         <v>44</v>
@@ -2624,7 +2961,9 @@
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
+      <c r="A46" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B46" s="1">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -2634,17 +2973,27 @@
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
+      <c r="A47" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B47" s="1">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
+      <c r="C47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
+      <c r="A48" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B48" s="1">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -2654,7 +3003,9 @@
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B49" s="1">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -2664,17 +3015,27 @@
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
+      <c r="A50" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B50" s="1">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
+      <c r="C50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="1"/>
+      <c r="A51" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B51" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -2684,7 +3045,9 @@
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="1"/>
+      <c r="A52" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B52" s="1">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -2694,7 +3057,9 @@
       <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
+      <c r="A53" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B53" s="1">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -2704,7 +3069,9 @@
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="1"/>
+      <c r="A54" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B54" s="1">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -2714,17 +3081,27 @@
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="1"/>
+      <c r="A55" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B55" s="1">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
+      <c r="C55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="1"/>
+      <c r="A56" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B56" s="1">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -2734,7 +3111,9 @@
       <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="1"/>
+      <c r="A57" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B57" s="1">
         <f>B56+1</f>
         <v>56</v>
@@ -2744,17 +3123,27 @@
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="1"/>
+      <c r="A58" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B58" s="1">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
+      <c r="C58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="1"/>
+      <c r="A59" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B59" s="1">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -2764,7 +3153,9 @@
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="1"/>
+      <c r="A60" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B60" s="1">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -2774,7 +3165,9 @@
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="1"/>
+      <c r="A61" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B61" s="1">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -2784,7 +3177,9 @@
       <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="1"/>
+      <c r="A62" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B62" s="1">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -2794,17 +3189,27 @@
       <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="1"/>
+      <c r="A63" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B63" s="1">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
+      <c r="C63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="1"/>
+      <c r="A64" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B64" s="1">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -2814,7 +3219,9 @@
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="1"/>
+      <c r="A65" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B65" s="1">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -2824,17 +3231,27 @@
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="1"/>
+      <c r="A66" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B66" s="1">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
+      <c r="C66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="1"/>
+      <c r="A67" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B67" s="1">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -2844,7 +3261,9 @@
       <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="1"/>
+      <c r="A68" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B68" s="1">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -2854,7 +3273,9 @@
       <c r="E68" s="1"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="1"/>
+      <c r="A69" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B69" s="1">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -2864,7 +3285,9 @@
       <c r="E69" s="1"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="1"/>
+      <c r="A70" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B70" s="1">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -2874,17 +3297,27 @@
       <c r="E70" s="1"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="1"/>
+      <c r="A71" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B71" s="1">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
+      <c r="C71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="1"/>
+      <c r="A72" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B72" s="1">
         <f t="shared" ref="B72:B81" si="3">B71+1</f>
         <v>71</v>
@@ -2894,7 +3327,9 @@
       <c r="E72" s="1"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="1"/>
+      <c r="A73" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B73" s="1">
         <f t="shared" si="3"/>
         <v>72</v>
@@ -2904,17 +3339,27 @@
       <c r="E73" s="1"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="1"/>
+      <c r="A74" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B74" s="1">
         <f t="shared" si="3"/>
         <v>73</v>
       </c>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
+      <c r="C74" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="1"/>
+      <c r="A75" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B75" s="1">
         <f t="shared" si="3"/>
         <v>74</v>
@@ -2924,7 +3369,9 @@
       <c r="E75" s="1"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="1"/>
+      <c r="A76" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="B76" s="1">
         <f t="shared" si="3"/>
         <v>75</v>
@@ -2934,7 +3381,9 @@
       <c r="E76" s="1"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="1"/>
+      <c r="A77" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="B77" s="1">
         <f t="shared" si="3"/>
         <v>76</v>
@@ -2944,7 +3393,9 @@
       <c r="E77" s="1"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="1"/>
+      <c r="A78" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="B78" s="1">
         <f t="shared" si="3"/>
         <v>77</v>
@@ -2954,17 +3405,27 @@
       <c r="E78" s="1"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="1"/>
+      <c r="A79" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="B79" s="1">
         <f t="shared" si="3"/>
         <v>78</v>
       </c>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
+      <c r="C79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="1"/>
+      <c r="A80" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="B80" s="1">
         <f t="shared" si="3"/>
         <v>79</v>
@@ -2974,7 +3435,9 @@
       <c r="E80" s="1"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="1"/>
+      <c r="A81" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="B81" s="1">
         <f t="shared" si="3"/>
         <v>80</v>
@@ -2982,6 +3445,13 @@
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ISTDB/Resources/timetable.xlsx
+++ b/ISTDB/Resources/timetable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hamish.Baird/Documents/GitHub/ISTDB_2/ISTDB/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B5672C-30DB-1D40-8C41-0C77F22CC970}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3371BEE-D00B-D840-B7E2-D13155D90BBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="8" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="64">
   <si>
     <t>Session</t>
   </si>
@@ -194,6 +194,27 @@
   </si>
   <si>
     <t>C9</t>
+  </si>
+  <si>
+    <t>EHI.E2</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>PAS.E3</t>
+  </si>
+  <si>
+    <t>Royce Villa</t>
+  </si>
+  <si>
+    <t>C18</t>
   </si>
 </sst>
 </file>
@@ -2203,8 +2224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A581B009-570A-452C-BF5F-AF9BB96CD8F3}">
   <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView zoomScale="108" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2833,7 +2854,15 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="C35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
@@ -2843,7 +2872,15 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
@@ -2853,7 +2890,15 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="C37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
@@ -2863,7 +2908,15 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="C38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
@@ -2891,8 +2944,15 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="E40" s="3"/>
+      <c r="C40" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
@@ -2902,9 +2962,15 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
+      <c r="C41" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -2932,9 +2998,15 @@
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+      <c r="C43" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
@@ -2944,9 +3016,15 @@
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -2956,9 +3034,15 @@
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
@@ -2968,9 +3052,15 @@
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
+      <c r="C46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -2998,9 +3088,15 @@
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
@@ -3010,9 +3106,15 @@
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
+      <c r="C49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
@@ -3040,9 +3142,15 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
+      <c r="C51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
@@ -3052,9 +3160,15 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
+      <c r="C52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
@@ -3064,9 +3178,15 @@
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
+      <c r="C53" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
@@ -3076,9 +3196,15 @@
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
+      <c r="C54" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
@@ -3106,9 +3232,15 @@
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
+      <c r="C56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
@@ -3118,9 +3250,15 @@
         <f>B56+1</f>
         <v>56</v>
       </c>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
+      <c r="C57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
@@ -3148,9 +3286,15 @@
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
+      <c r="C59" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
@@ -3160,9 +3304,15 @@
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
+      <c r="C60" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
@@ -3172,9 +3322,15 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
+      <c r="C61" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
@@ -3184,9 +3340,15 @@
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
+      <c r="C62" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
@@ -3214,9 +3376,15 @@
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
+      <c r="C64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
@@ -3226,9 +3394,15 @@
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
+      <c r="C65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
@@ -3256,9 +3430,15 @@
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
+      <c r="C67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
@@ -3268,9 +3448,15 @@
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
+      <c r="C68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
@@ -3280,9 +3466,15 @@
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
+      <c r="C69" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
@@ -3292,9 +3484,15 @@
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
+      <c r="C70" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
@@ -3322,9 +3520,15 @@
         <f t="shared" ref="B72:B81" si="3">B71+1</f>
         <v>71</v>
       </c>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
+      <c r="C72" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
@@ -3334,9 +3538,15 @@
         <f t="shared" si="3"/>
         <v>72</v>
       </c>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
+      <c r="C73" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
@@ -3364,9 +3574,15 @@
         <f t="shared" si="3"/>
         <v>74</v>
       </c>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
+      <c r="C75" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
@@ -3376,9 +3592,15 @@
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
+      <c r="C76" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
@@ -3388,9 +3610,15 @@
         <f t="shared" si="3"/>
         <v>76</v>
       </c>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
+      <c r="C77" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
@@ -3400,9 +3628,15 @@
         <f t="shared" si="3"/>
         <v>77</v>
       </c>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
+      <c r="C78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
@@ -3430,9 +3664,15 @@
         <f t="shared" si="3"/>
         <v>79</v>
       </c>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
+      <c r="C80" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
@@ -3442,9 +3682,15 @@
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
+      <c r="C81" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
@@ -3466,8 +3712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6A51A6-E75A-0B45-B992-FFFDE7093637}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3483,383 +3729,713 @@
         <v>1</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
+      <c r="A2" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="14"/>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
+      <c r="A3" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B3" s="8">
         <v>2</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="15"/>
+      <c r="C3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
+      <c r="A4" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B4" s="6">
         <v>3</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="14"/>
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
+      <c r="A5" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B5" s="8">
         <v>4</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="15"/>
+      <c r="C5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
+      <c r="A6" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B6" s="6">
         <v>5</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="14"/>
+      <c r="C6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
+      <c r="A7" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B7" s="8">
         <v>6</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="15"/>
+      <c r="C7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B8" s="6">
         <v>7</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="14"/>
+      <c r="C8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
+      <c r="A9" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B9" s="8">
         <v>8</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="16"/>
+      <c r="C9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
+      <c r="A10" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B10" s="6">
         <v>9</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="14"/>
+      <c r="C10" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
+      <c r="A11" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B11" s="8">
         <v>10</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="15"/>
+      <c r="C11" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
+      <c r="A12" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B12" s="6">
         <v>11</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="14"/>
+      <c r="C12" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
+      <c r="A13" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B13" s="8">
         <v>12</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="15"/>
+      <c r="C13" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
+      <c r="A14" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B14" s="6">
         <v>13</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="14"/>
+      <c r="C14" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
+      <c r="A15" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B15" s="8">
         <v>14</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="15"/>
+      <c r="C15" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
+      <c r="A16" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B16" s="6">
         <v>15</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="19"/>
+      <c r="C16" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
+      <c r="A17" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B17" s="8">
         <v>16</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="16"/>
+      <c r="C17" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
+      <c r="A18" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B18" s="6">
         <v>17</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="14"/>
+      <c r="C18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
+      <c r="A19" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B19" s="8">
         <v>18</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="15"/>
+      <c r="C19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
+      <c r="A20" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B20" s="6">
         <v>19</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="14"/>
+      <c r="C20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
+      <c r="A21" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B21" s="8">
         <v>20</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="15"/>
+      <c r="C21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
+      <c r="A22" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B22" s="6">
         <v>21</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="14"/>
+      <c r="C22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
+      <c r="A23" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B23" s="8">
         <v>22</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="15"/>
+      <c r="C23" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
+      <c r="A24" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B24" s="6">
         <v>23</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="14"/>
+      <c r="C24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
+      <c r="A25" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B25" s="8">
         <v>24</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="15"/>
+      <c r="C25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
+      <c r="A26" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B26" s="6">
         <v>25</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="14"/>
+      <c r="C26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
+      <c r="A27" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B27" s="8">
         <v>26</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="15"/>
+      <c r="C27" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
+      <c r="A28" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B28" s="6">
         <v>27</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="14"/>
+      <c r="C28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
+      <c r="A29" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B29" s="8">
         <v>28</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="15"/>
+      <c r="C29" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
+      <c r="A30" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B30" s="6">
         <v>29</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="14"/>
+      <c r="C30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
+      <c r="A31" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B31" s="8">
         <v>30</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="15"/>
+      <c r="C31" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="5"/>
+      <c r="A32" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B32" s="6">
         <v>31</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="14"/>
+      <c r="C32" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="7"/>
+      <c r="A33" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B33" s="8">
         <v>32</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="15"/>
+      <c r="C33" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
+      <c r="A34" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B34" s="6">
         <v>33</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="14"/>
+      <c r="C34" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
+      <c r="A35" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B35" s="8">
         <v>34</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="15"/>
+      <c r="C35" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="5"/>
+      <c r="A36" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B36" s="6">
         <v>35</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="14"/>
+      <c r="C36" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="7"/>
+      <c r="A37" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B37" s="8">
         <v>36</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="15"/>
+      <c r="C37" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="5"/>
+      <c r="A38" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B38" s="6">
         <v>37</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="14"/>
+      <c r="C38" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="7"/>
+      <c r="A39" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B39" s="8">
         <v>38</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="15"/>
+      <c r="C39" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="5"/>
+      <c r="A40" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B40" s="6">
         <v>39</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="19"/>
+      <c r="C40" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="7"/>
+      <c r="A41" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B41" s="8">
         <v>40</v>
       </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="16"/>
+      <c r="C41" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="5"/>
+      <c r="A42" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B42" s="6">
         <v>41</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="14"/>
+      <c r="C42" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="7"/>
+      <c r="A43" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B43" s="8">
         <v>42</v>
       </c>
@@ -3868,7 +4444,9 @@
       <c r="E43" s="15"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="5"/>
+      <c r="A44" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B44" s="6">
         <v>43</v>
       </c>
@@ -3877,7 +4455,9 @@
       <c r="E44" s="14"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="7"/>
+      <c r="A45" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B45" s="8">
         <v>44</v>
       </c>
@@ -3886,7 +4466,9 @@
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="5"/>
+      <c r="A46" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B46" s="6">
         <v>45</v>
       </c>
@@ -3895,16 +4477,26 @@
       <c r="E46" s="14"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="7"/>
+      <c r="A47" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B47" s="8">
         <v>46</v>
       </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="15"/>
+      <c r="C47" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="5"/>
+      <c r="A48" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B48" s="6">
         <v>47</v>
       </c>
@@ -3913,7 +4505,9 @@
       <c r="E48" s="14"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="7"/>
+      <c r="A49" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B49" s="8">
         <v>48</v>
       </c>
@@ -3922,16 +4516,26 @@
       <c r="E49" s="15"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="5"/>
+      <c r="A50" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B50" s="6">
         <v>49</v>
       </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="14"/>
+      <c r="C50" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="7"/>
+      <c r="A51" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B51" s="8">
         <v>50</v>
       </c>
@@ -3940,7 +4544,9 @@
       <c r="E51" s="15"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="5"/>
+      <c r="A52" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B52" s="6">
         <v>51</v>
       </c>
@@ -3949,7 +4555,9 @@
       <c r="E52" s="14"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="7"/>
+      <c r="A53" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B53" s="8">
         <v>52</v>
       </c>
@@ -3958,7 +4566,9 @@
       <c r="E53" s="15"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="5"/>
+      <c r="A54" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B54" s="6">
         <v>53</v>
       </c>
@@ -3967,16 +4577,26 @@
       <c r="E54" s="14"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="7"/>
+      <c r="A55" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B55" s="8">
         <v>54</v>
       </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="15"/>
+      <c r="C55" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="5"/>
+      <c r="A56" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B56" s="6">
         <v>55</v>
       </c>
@@ -3985,7 +4605,9 @@
       <c r="E56" s="14"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="7"/>
+      <c r="A57" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B57" s="8">
         <v>56</v>
       </c>
@@ -3994,16 +4616,26 @@
       <c r="E57" s="15"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="5"/>
+      <c r="A58" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B58" s="6">
         <v>57</v>
       </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="14"/>
+      <c r="C58" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="7"/>
+      <c r="A59" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B59" s="8">
         <v>58</v>
       </c>
@@ -4012,7 +4644,9 @@
       <c r="E59" s="15"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="5"/>
+      <c r="A60" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B60" s="6">
         <v>59</v>
       </c>
@@ -4021,7 +4655,9 @@
       <c r="E60" s="14"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="7"/>
+      <c r="A61" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B61" s="8">
         <v>60</v>
       </c>
@@ -4030,7 +4666,9 @@
       <c r="E61" s="15"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="5"/>
+      <c r="A62" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B62" s="6">
         <v>61</v>
       </c>
@@ -4039,16 +4677,26 @@
       <c r="E62" s="14"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="7"/>
+      <c r="A63" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B63" s="8">
         <v>62</v>
       </c>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="15"/>
+      <c r="C63" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="5"/>
+      <c r="A64" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B64" s="6">
         <v>63</v>
       </c>
@@ -4057,7 +4705,9 @@
       <c r="E64" s="14"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="7"/>
+      <c r="A65" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B65" s="8">
         <v>64</v>
       </c>
@@ -4066,16 +4716,26 @@
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="5"/>
+      <c r="A66" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B66" s="6">
         <v>65</v>
       </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="14"/>
+      <c r="C66" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="7"/>
+      <c r="A67" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B67" s="8">
         <v>66</v>
       </c>
@@ -4084,7 +4744,9 @@
       <c r="E67" s="15"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="5"/>
+      <c r="A68" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B68" s="6">
         <v>67</v>
       </c>
@@ -4093,7 +4755,9 @@
       <c r="E68" s="14"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="7"/>
+      <c r="A69" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B69" s="8">
         <v>68</v>
       </c>
@@ -4102,7 +4766,9 @@
       <c r="E69" s="15"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="5"/>
+      <c r="A70" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B70" s="6">
         <v>69</v>
       </c>
@@ -4111,16 +4777,26 @@
       <c r="E70" s="14"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="7"/>
+      <c r="A71" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B71" s="8">
         <v>70</v>
       </c>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="15"/>
+      <c r="C71" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" s="15" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="5"/>
+      <c r="A72" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B72" s="6">
         <v>71</v>
       </c>
@@ -4129,7 +4805,9 @@
       <c r="E72" s="14"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="7"/>
+      <c r="A73" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B73" s="8">
         <v>72</v>
       </c>
@@ -4138,16 +4816,26 @@
       <c r="E73" s="15"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="5"/>
+      <c r="A74" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B74" s="6">
         <v>73</v>
       </c>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="14"/>
+      <c r="C74" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="7"/>
+      <c r="A75" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B75" s="8">
         <v>74</v>
       </c>
@@ -4156,7 +4844,9 @@
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="5"/>
+      <c r="A76" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B76" s="6">
         <v>75</v>
       </c>
@@ -4165,7 +4855,9 @@
       <c r="E76" s="14"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="7"/>
+      <c r="A77" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B77" s="8">
         <v>76</v>
       </c>
@@ -4174,7 +4866,9 @@
       <c r="E77" s="15"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="5"/>
+      <c r="A78" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B78" s="6">
         <v>77</v>
       </c>
@@ -4183,16 +4877,26 @@
       <c r="E78" s="14"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="7"/>
+      <c r="A79" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B79" s="8">
         <v>78</v>
       </c>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="15"/>
+      <c r="C79" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="15" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="5"/>
+      <c r="A80" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B80" s="6">
         <v>79</v>
       </c>
@@ -4201,7 +4905,9 @@
       <c r="E80" s="14"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="7"/>
+      <c r="A81" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="B81" s="8">
         <v>80</v>
       </c>

--- a/ISTDB/Resources/timetable.xlsx
+++ b/ISTDB/Resources/timetable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hamish.Baird/Documents/GitHub/ISTDB_2/ISTDB/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3371BEE-D00B-D840-B7E2-D13155D90BBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2554010E-B292-2848-A58B-2354C0FFC394}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15440" yWindow="0" windowWidth="13360" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="8" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="64">
   <si>
     <t>Session</t>
   </si>
@@ -3712,8 +3712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6A51A6-E75A-0B45-B992-FFFDE7093637}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3981,7 +3981,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>11</v>
@@ -4439,9 +4439,15 @@
       <c r="B43" s="8">
         <v>42</v>
       </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="15"/>
+      <c r="C43" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
@@ -4450,9 +4456,15 @@
       <c r="B44" s="6">
         <v>43</v>
       </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="14"/>
+      <c r="C44" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
@@ -4461,9 +4473,15 @@
       <c r="B45" s="8">
         <v>44</v>
       </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="15"/>
+      <c r="C45" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
@@ -4472,9 +4490,15 @@
       <c r="B46" s="6">
         <v>45</v>
       </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="14"/>
+      <c r="C46" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
@@ -4500,9 +4524,15 @@
       <c r="B48" s="6">
         <v>47</v>
       </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="14"/>
+      <c r="C48" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
@@ -4511,9 +4541,15 @@
       <c r="B49" s="8">
         <v>48</v>
       </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="15"/>
+      <c r="C49" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
@@ -4539,9 +4575,15 @@
       <c r="B51" s="8">
         <v>50</v>
       </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="15"/>
+      <c r="C51" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
@@ -4550,9 +4592,15 @@
       <c r="B52" s="6">
         <v>51</v>
       </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="14"/>
+      <c r="C52" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
@@ -4561,9 +4609,15 @@
       <c r="B53" s="8">
         <v>52</v>
       </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="15"/>
+      <c r="C53" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
@@ -4572,9 +4626,15 @@
       <c r="B54" s="6">
         <v>53</v>
       </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="14"/>
+      <c r="C54" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
@@ -4600,9 +4660,15 @@
       <c r="B56" s="6">
         <v>55</v>
       </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="14"/>
+      <c r="C56" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
@@ -4611,9 +4677,15 @@
       <c r="B57" s="8">
         <v>56</v>
       </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="15"/>
+      <c r="C57" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
@@ -4639,9 +4711,15 @@
       <c r="B59" s="8">
         <v>58</v>
       </c>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="15"/>
+      <c r="C59" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
@@ -4650,9 +4728,15 @@
       <c r="B60" s="6">
         <v>59</v>
       </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="14"/>
+      <c r="C60" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
@@ -4661,9 +4745,15 @@
       <c r="B61" s="8">
         <v>60</v>
       </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="15"/>
+      <c r="C61" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
@@ -4672,9 +4762,15 @@
       <c r="B62" s="6">
         <v>61</v>
       </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="14"/>
+      <c r="C62" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
@@ -4700,9 +4796,15 @@
       <c r="B64" s="6">
         <v>63</v>
       </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="14"/>
+      <c r="C64" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
@@ -4711,9 +4813,15 @@
       <c r="B65" s="8">
         <v>64</v>
       </c>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="15"/>
+      <c r="C65" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
@@ -4739,9 +4847,15 @@
       <c r="B67" s="8">
         <v>66</v>
       </c>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="15"/>
+      <c r="C67" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
@@ -4750,9 +4864,15 @@
       <c r="B68" s="6">
         <v>67</v>
       </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="14"/>
+      <c r="C68" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
@@ -4761,9 +4881,15 @@
       <c r="B69" s="8">
         <v>68</v>
       </c>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="15"/>
+      <c r="C69" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="15" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
@@ -4772,9 +4898,15 @@
       <c r="B70" s="6">
         <v>69</v>
       </c>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="14"/>
+      <c r="C70" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
@@ -4800,9 +4932,15 @@
       <c r="B72" s="6">
         <v>71</v>
       </c>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="14"/>
+      <c r="C72" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E72" s="14" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
@@ -4811,9 +4949,15 @@
       <c r="B73" s="8">
         <v>72</v>
       </c>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="15"/>
+      <c r="C73" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E73" s="15" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
@@ -4839,9 +4983,15 @@
       <c r="B75" s="8">
         <v>74</v>
       </c>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="15"/>
+      <c r="C75" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E75" s="15" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
@@ -4850,9 +5000,15 @@
       <c r="B76" s="6">
         <v>75</v>
       </c>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="14"/>
+      <c r="C76" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
@@ -4861,9 +5017,15 @@
       <c r="B77" s="8">
         <v>76</v>
       </c>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="15"/>
+      <c r="C77" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" s="15" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
@@ -4872,9 +5034,15 @@
       <c r="B78" s="6">
         <v>77</v>
       </c>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="14"/>
+      <c r="C78" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
@@ -4900,9 +5068,15 @@
       <c r="B80" s="6">
         <v>79</v>
       </c>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="14"/>
+      <c r="C80" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
@@ -4911,9 +5085,15 @@
       <c r="B81" s="8">
         <v>80</v>
       </c>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="15"/>
+      <c r="C81" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E81" s="15" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ISTDB/Resources/timetable.xlsx
+++ b/ISTDB/Resources/timetable.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hamish.Baird/Documents/GitHub/ISTDB_2/ISTDB/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2554010E-B292-2848-A58B-2354C0FFC394}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401EE51D-4C17-E742-AA4D-84E5A36013D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15440" yWindow="0" windowWidth="13360" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15440" yWindow="0" windowWidth="13360" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="8" r:id="rId1"/>
     <sheet name="1" sheetId="4" r:id="rId2"/>
     <sheet name="2" sheetId="6" r:id="rId3"/>
     <sheet name="3" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="81">
   <si>
     <t>Session</t>
   </si>
@@ -215,6 +216,57 @@
   </si>
   <si>
     <t>C18</t>
+  </si>
+  <si>
+    <t>NUR.T0</t>
+  </si>
+  <si>
+    <t>Jasmin Cook</t>
+  </si>
+  <si>
+    <t>FrS</t>
+  </si>
+  <si>
+    <t>MAT.T</t>
+  </si>
+  <si>
+    <t>S13</t>
+  </si>
+  <si>
+    <t>HoJ</t>
+  </si>
+  <si>
+    <t>HUM.T</t>
+  </si>
+  <si>
+    <t>PD.T</t>
+  </si>
+  <si>
+    <t>SC1</t>
+  </si>
+  <si>
+    <t>KlH</t>
+  </si>
+  <si>
+    <t>VA.E1</t>
+  </si>
+  <si>
+    <t>S10</t>
+  </si>
+  <si>
+    <t>CAR.T</t>
+  </si>
+  <si>
+    <t>DSN</t>
+  </si>
+  <si>
+    <t>CR.T</t>
+  </si>
+  <si>
+    <t>HoD</t>
+  </si>
+  <si>
+    <t>SCI.T</t>
   </si>
 </sst>
 </file>
@@ -354,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -368,7 +420,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -814,716 +865,716 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="21" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="8">
+      <c r="A3" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="7">
         <v>2</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="6">
         <v>3</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="8">
+      <c r="A5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="7">
         <v>4</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="6">
         <v>5</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8">
+      <c r="A7" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7">
         <v>6</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="6">
         <v>7</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="8">
+      <c r="A9" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="7">
         <v>8</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="6">
         <v>9</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="8">
+      <c r="A11" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7">
         <v>10</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="23" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="6">
         <v>11</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="23" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="8">
+      <c r="A13" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="7">
         <v>12</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="23" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="6">
         <v>13</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="23" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="8">
+      <c r="A15" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="7">
         <v>14</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="6">
         <v>15</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="23" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="8">
+      <c r="A17" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="7">
         <v>16</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="6">
         <v>17</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="21" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="8">
-        <v>18</v>
-      </c>
-      <c r="C19" s="22" t="s">
+      <c r="A19" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="7">
+        <v>18</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="21" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="6">
         <v>19</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="21" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="8">
+      <c r="A21" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="7">
         <v>20</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="6">
         <v>21</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="8">
+      <c r="A23" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="7">
         <v>22</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="6">
         <v>23</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="8">
+      <c r="A25" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="7">
         <v>24</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="6">
         <v>25</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="E26" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="8">
+      <c r="A27" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="7">
         <v>26</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="E27" s="23" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="6">
         <v>27</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="E28" s="23" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="8">
+      <c r="A29" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="7">
         <v>28</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="24" t="s">
+      <c r="E29" s="23" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="6">
         <v>29</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="E30" s="23" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="8">
+      <c r="A31" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="7">
         <v>30</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="24" t="s">
+      <c r="E31" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="6">
         <v>31</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E32" s="24" t="s">
+      <c r="E32" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A33" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="8">
+      <c r="A33" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="7">
         <v>32</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="24" t="s">
+      <c r="E33" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="6">
         <v>33</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="26" t="s">
+      <c r="E34" s="25" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A35" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="8">
+      <c r="A35" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="7">
         <v>34</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="26" t="s">
+      <c r="E35" s="25" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B36" s="6">
         <v>35</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="26" t="s">
+      <c r="D36" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E36" s="26" t="s">
+      <c r="E36" s="25" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A37" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="8">
+      <c r="A37" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="7">
         <v>36</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="26" t="s">
+      <c r="D37" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="26" t="s">
+      <c r="E37" s="25" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B38" s="6">
         <v>37</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="26" t="s">
+      <c r="D38" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="26" t="s">
+      <c r="E38" s="25" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A39" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="8">
+      <c r="A39" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="7">
         <v>38</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="26" t="s">
+      <c r="D39" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E39" s="26" t="s">
+      <c r="E39" s="25" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B40" s="6">
         <v>39</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D40" s="26" t="s">
+      <c r="D40" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="27" t="s">
+      <c r="E40" s="26" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A41" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="8">
+      <c r="A41" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="7">
         <v>40</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="27" t="s">
+      <c r="D41" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="27" t="s">
+      <c r="E41" s="26" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B42" s="6">
         <v>41</v>
       </c>
-      <c r="C42" s="28" t="s">
+      <c r="C42" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="24" t="s">
+      <c r="D42" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E42" s="24" t="s">
+      <c r="E42" s="23" t="s">
         <v>8</v>
       </c>
       <c r="Z42" s="3"/>
@@ -1533,138 +1584,138 @@
       <c r="AJ42" s="3"/>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A43" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="8">
+      <c r="A43" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="7">
         <v>42</v>
       </c>
-      <c r="C43" s="28" t="s">
+      <c r="C43" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E43" s="24" t="s">
+      <c r="E43" s="23" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B44" s="6">
         <v>43</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="C44" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="24" t="s">
+      <c r="D44" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="24" t="s">
+      <c r="E44" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A45" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" s="8">
+      <c r="A45" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="7">
         <v>44</v>
       </c>
-      <c r="C45" s="28" t="s">
+      <c r="C45" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="24" t="s">
+      <c r="D45" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E45" s="24" t="s">
+      <c r="E45" s="23" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A46" s="20" t="s">
+      <c r="A46" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B46" s="6">
         <v>45</v>
       </c>
-      <c r="C46" s="28" t="s">
+      <c r="C46" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E46" s="24" t="s">
+      <c r="E46" s="23" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A47" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47" s="8">
+      <c r="A47" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="7">
         <v>46</v>
       </c>
-      <c r="C47" s="28" t="s">
+      <c r="C47" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="24" t="s">
+      <c r="D47" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E47" s="24" t="s">
+      <c r="E47" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A48" s="20" t="s">
+      <c r="A48" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B48" s="6">
         <v>47</v>
       </c>
-      <c r="C48" s="28" t="s">
+      <c r="C48" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D48" s="24" t="s">
+      <c r="D48" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E48" s="29" t="s">
+      <c r="E48" s="28" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A49" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49" s="8">
-        <v>48</v>
-      </c>
-      <c r="C49" s="28" t="s">
+      <c r="A49" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="7">
+        <v>48</v>
+      </c>
+      <c r="C49" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="29" t="s">
+      <c r="D49" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E49" s="29" t="s">
+      <c r="E49" s="28" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A50" s="20" t="s">
+      <c r="A50" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B50" s="6">
         <v>49</v>
       </c>
-      <c r="C50" s="21" t="s">
+      <c r="C50" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="22" t="s">
+      <c r="D50" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E50" s="22" t="s">
+      <c r="E50" s="21" t="s">
         <v>8</v>
       </c>
       <c r="Z50" s="3"/>
@@ -1674,138 +1725,138 @@
       <c r="AJ50" s="3"/>
     </row>
     <row r="51" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A51" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51" s="8">
+      <c r="A51" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="7">
         <v>50</v>
       </c>
-      <c r="C51" s="21" t="s">
+      <c r="C51" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="22" t="s">
+      <c r="D51" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E51" s="22" t="s">
+      <c r="E51" s="21" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A52" s="20" t="s">
+      <c r="A52" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B52" s="6">
         <v>51</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D52" s="22" t="s">
+      <c r="D52" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E52" s="22" t="s">
+      <c r="E52" s="21" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A53" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B53" s="8">
+      <c r="A53" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="7">
         <v>52</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D53" s="22" t="s">
+      <c r="D53" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E53" s="22" t="s">
+      <c r="E53" s="21" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A54" s="20" t="s">
+      <c r="A54" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B54" s="6">
         <v>53</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C54" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="22" t="s">
+      <c r="D54" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E54" s="22" t="s">
+      <c r="E54" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A55" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55" s="8">
+      <c r="A55" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="7">
         <v>54</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="22" t="s">
+      <c r="D55" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E55" s="22" t="s">
+      <c r="E55" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B56" s="6">
         <v>55</v>
       </c>
-      <c r="C56" s="21" t="s">
+      <c r="C56" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D56" s="22" t="s">
+      <c r="D56" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="23" t="s">
+      <c r="E56" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A57" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B57" s="8">
+      <c r="A57" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="7">
         <v>56</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="C57" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D57" s="23" t="s">
+      <c r="D57" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E57" s="23" t="s">
+      <c r="E57" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A58" s="20" t="s">
+      <c r="A58" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B58" s="6">
         <v>57</v>
       </c>
-      <c r="C58" s="28" t="s">
+      <c r="C58" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D58" s="24" t="s">
+      <c r="D58" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E58" s="24" t="s">
+      <c r="E58" s="23" t="s">
         <v>8</v>
       </c>
       <c r="Z58" s="3"/>
@@ -1815,138 +1866,138 @@
       <c r="AJ58" s="3"/>
     </row>
     <row r="59" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A59" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B59" s="8">
+      <c r="A59" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="7">
         <v>58</v>
       </c>
-      <c r="C59" s="28" t="s">
+      <c r="C59" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D59" s="24" t="s">
+      <c r="D59" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="24" t="s">
+      <c r="E59" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A60" s="20" t="s">
+      <c r="A60" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B60" s="6">
         <v>59</v>
       </c>
-      <c r="C60" s="28" t="s">
+      <c r="C60" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D60" s="24" t="s">
+      <c r="D60" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E60" s="24" t="s">
+      <c r="E60" s="23" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A61" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B61" s="8">
+      <c r="A61" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="7">
         <v>60</v>
       </c>
-      <c r="C61" s="28" t="s">
+      <c r="C61" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D61" s="24" t="s">
+      <c r="D61" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E61" s="24" t="s">
+      <c r="E61" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A62" s="20" t="s">
+      <c r="A62" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B62" s="6">
         <v>61</v>
       </c>
-      <c r="C62" s="28" t="s">
+      <c r="C62" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D62" s="24" t="s">
+      <c r="D62" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E62" s="24" t="s">
+      <c r="E62" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A63" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B63" s="8">
-        <v>62</v>
-      </c>
-      <c r="C63" s="28" t="s">
+      <c r="A63" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="7">
+        <v>62</v>
+      </c>
+      <c r="C63" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D63" s="24" t="s">
+      <c r="D63" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E63" s="24" t="s">
+      <c r="E63" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A64" s="20" t="s">
+      <c r="A64" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B64" s="6">
         <v>63</v>
       </c>
-      <c r="C64" s="28" t="s">
+      <c r="C64" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D64" s="24" t="s">
+      <c r="D64" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E64" s="29" t="s">
+      <c r="E64" s="28" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A65" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B65" s="8">
+      <c r="A65" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="7">
         <v>64</v>
       </c>
-      <c r="C65" s="28" t="s">
+      <c r="C65" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D65" s="29" t="s">
+      <c r="D65" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E65" s="29" t="s">
+      <c r="E65" s="28" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A66" s="20" t="s">
+      <c r="A66" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B66" s="6">
         <v>65</v>
       </c>
-      <c r="C66" s="21" t="s">
+      <c r="C66" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D66" s="22" t="s">
+      <c r="D66" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E66" s="22" t="s">
+      <c r="E66" s="21" t="s">
         <v>8</v>
       </c>
       <c r="Z66" s="3"/>
@@ -1956,138 +2007,138 @@
       <c r="AJ66" s="3"/>
     </row>
     <row r="67" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A67" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B67" s="8">
+      <c r="A67" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="7">
         <v>66</v>
       </c>
-      <c r="C67" s="21" t="s">
+      <c r="C67" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D67" s="22" t="s">
+      <c r="D67" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E67" s="22" t="s">
+      <c r="E67" s="21" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="68" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A68" s="20" t="s">
+      <c r="A68" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B68" s="6">
         <v>67</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C68" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D68" s="22" t="s">
+      <c r="D68" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E68" s="22" t="s">
+      <c r="E68" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A69" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B69" s="8">
+      <c r="A69" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="7">
         <v>68</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="C69" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D69" s="22" t="s">
+      <c r="D69" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E69" s="22" t="s">
+      <c r="E69" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A70" s="20" t="s">
+      <c r="A70" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B70" s="6">
         <v>69</v>
       </c>
-      <c r="C70" s="21" t="s">
+      <c r="C70" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D70" s="22" t="s">
+      <c r="D70" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E70" s="22" t="s">
+      <c r="E70" s="21" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A71" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B71" s="8">
+      <c r="A71" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" s="7">
         <v>70</v>
       </c>
-      <c r="C71" s="21" t="s">
+      <c r="C71" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D71" s="22" t="s">
+      <c r="D71" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="22" t="s">
+      <c r="E71" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A72" s="20" t="s">
+      <c r="A72" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B72" s="6">
         <v>71</v>
       </c>
-      <c r="C72" s="21" t="s">
+      <c r="C72" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D72" s="22" t="s">
+      <c r="D72" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E72" s="23" t="s">
+      <c r="E72" s="22" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A73" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B73" s="8">
+      <c r="A73" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" s="7">
         <v>72</v>
       </c>
-      <c r="C73" s="21" t="s">
+      <c r="C73" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D73" s="23" t="s">
+      <c r="D73" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E73" s="23" t="s">
+      <c r="E73" s="22" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A74" s="20" t="s">
+      <c r="A74" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B74" s="6">
         <v>73</v>
       </c>
-      <c r="C74" s="28" t="s">
+      <c r="C74" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D74" s="24" t="s">
+      <c r="D74" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E74" s="24" t="s">
+      <c r="E74" s="23" t="s">
         <v>8</v>
       </c>
       <c r="Z74" s="3"/>
@@ -2097,121 +2148,121 @@
       <c r="AJ74" s="3"/>
     </row>
     <row r="75" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A75" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B75" s="8">
+      <c r="A75" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" s="7">
         <v>74</v>
       </c>
-      <c r="C75" s="28" t="s">
+      <c r="C75" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D75" s="24" t="s">
+      <c r="D75" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="24" t="s">
+      <c r="E75" s="23" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="76" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A76" s="20" t="s">
+      <c r="A76" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B76" s="6">
         <v>75</v>
       </c>
-      <c r="C76" s="28" t="s">
+      <c r="C76" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D76" s="24" t="s">
+      <c r="D76" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E76" s="24" t="s">
+      <c r="E76" s="23" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A77" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B77" s="8">
+      <c r="A77" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" s="7">
         <v>76</v>
       </c>
-      <c r="C77" s="28" t="s">
+      <c r="C77" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D77" s="24" t="s">
+      <c r="D77" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E77" s="24" t="s">
+      <c r="E77" s="23" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A78" s="20" t="s">
+      <c r="A78" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B78" s="6">
         <v>77</v>
       </c>
-      <c r="C78" s="28" t="s">
+      <c r="C78" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D78" s="24" t="s">
+      <c r="D78" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E78" s="24" t="s">
+      <c r="E78" s="23" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A79" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B79" s="8">
+      <c r="A79" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="7">
         <v>78</v>
       </c>
-      <c r="C79" s="28" t="s">
+      <c r="C79" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D79" s="24" t="s">
+      <c r="D79" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="24" t="s">
+      <c r="E79" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A80" s="20" t="s">
+      <c r="A80" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B80" s="6">
         <v>79</v>
       </c>
-      <c r="C80" s="28" t="s">
+      <c r="C80" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D80" s="24" t="s">
+      <c r="D80" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E80" s="29" t="s">
+      <c r="E80" s="28" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B81" s="8">
+      <c r="A81" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" s="7">
         <v>80</v>
       </c>
-      <c r="C81" s="28" t="s">
+      <c r="C81" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D81" s="29" t="s">
+      <c r="D81" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E81" s="29" t="s">
+      <c r="E81" s="28" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2225,7 +2276,7 @@
   <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView zoomScale="108" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3712,26 +3763,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6A51A6-E75A-0B45-B992-FFFDE7093637}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView topLeftCell="A57" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3748,7 +3799,7 @@
       <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3756,16 +3807,16 @@
       <c r="A3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3782,7 +3833,7 @@
       <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3790,16 +3841,16 @@
       <c r="A5" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>4</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3816,7 +3867,7 @@
       <c r="D6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3824,16 +3875,16 @@
       <c r="A7" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>6</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="14" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3850,7 +3901,7 @@
       <c r="D8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3858,16 +3909,16 @@
       <c r="A9" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>8</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="15" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3878,13 +3929,13 @@
       <c r="B10" s="6">
         <v>9</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3892,16 +3943,16 @@
       <c r="A11" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>10</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="14" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3912,13 +3963,13 @@
       <c r="B12" s="6">
         <v>11</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3926,16 +3977,16 @@
       <c r="A13" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>12</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="14" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3946,13 +3997,13 @@
       <c r="B14" s="6">
         <v>13</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3960,16 +4011,16 @@
       <c r="A15" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>14</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="14" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3980,13 +4031,13 @@
       <c r="B16" s="6">
         <v>15</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="18" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3994,16 +4045,16 @@
       <c r="A17" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>16</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4020,7 +4071,7 @@
       <c r="D18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4028,16 +4079,16 @@
       <c r="A19" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="8">
-        <v>18</v>
-      </c>
-      <c r="C19" s="8" t="s">
+      <c r="B19" s="7">
+        <v>18</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="14" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4054,7 +4105,7 @@
       <c r="D20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="13" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4062,16 +4113,16 @@
       <c r="A21" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <v>20</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="14" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4088,7 +4139,7 @@
       <c r="D22" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="13" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4096,16 +4147,16 @@
       <c r="A23" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="7">
         <v>22</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="14" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4122,7 +4173,7 @@
       <c r="D24" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4130,16 +4181,16 @@
       <c r="A25" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="7">
         <v>24</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="14" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4156,7 +4207,7 @@
       <c r="D26" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4164,16 +4215,16 @@
       <c r="A27" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="7">
         <v>26</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="14" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4190,7 +4241,7 @@
       <c r="D28" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="13" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4198,16 +4249,16 @@
       <c r="A29" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="7">
         <v>28</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="14" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4224,7 +4275,7 @@
       <c r="D30" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="13" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4232,16 +4283,16 @@
       <c r="A31" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="7">
         <v>30</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="14" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4258,7 +4309,7 @@
       <c r="D32" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="13" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4266,16 +4317,16 @@
       <c r="A33" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="7">
         <v>32</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="14" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4286,13 +4337,13 @@
       <c r="B34" s="6">
         <v>33</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4300,16 +4351,16 @@
       <c r="A35" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="7">
         <v>34</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="14" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4320,13 +4371,13 @@
       <c r="B36" s="6">
         <v>35</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4334,16 +4385,16 @@
       <c r="A37" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="7">
         <v>36</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E37" s="15" t="s">
+      <c r="E37" s="14" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4354,13 +4405,13 @@
       <c r="B38" s="6">
         <v>37</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4368,16 +4419,16 @@
       <c r="A39" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="7">
         <v>38</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="E39" s="14" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4388,13 +4439,13 @@
       <c r="B40" s="6">
         <v>39</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="18" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4402,16 +4453,16 @@
       <c r="A41" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="7">
         <v>40</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="15" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4428,7 +4479,7 @@
       <c r="D42" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="E42" s="13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4436,16 +4487,16 @@
       <c r="A43" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="7">
         <v>42</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="E43" s="14" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4462,7 +4513,7 @@
       <c r="D44" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="14" t="s">
+      <c r="E44" s="13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4470,16 +4521,16 @@
       <c r="A45" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="7">
         <v>44</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E45" s="15" t="s">
+      <c r="E45" s="14" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4496,7 +4547,7 @@
       <c r="D46" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E46" s="14" t="s">
+      <c r="E46" s="13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4504,16 +4555,16 @@
       <c r="A47" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="7">
         <v>46</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E47" s="15" t="s">
+      <c r="E47" s="14" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4530,7 +4581,7 @@
       <c r="D48" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E48" s="14" t="s">
+      <c r="E48" s="13" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4538,7 +4589,7 @@
       <c r="A49" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="7">
         <v>48</v>
       </c>
       <c r="C49" s="6" t="s">
@@ -4547,7 +4598,7 @@
       <c r="D49" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E49" s="15" t="s">
+      <c r="E49" s="14" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4564,7 +4615,7 @@
       <c r="D50" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E50" s="14" t="s">
+      <c r="E50" s="13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4572,16 +4623,16 @@
       <c r="A51" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B51" s="7">
         <v>50</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E51" s="15" t="s">
+      <c r="E51" s="14" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4598,7 +4649,7 @@
       <c r="D52" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E52" s="14" t="s">
+      <c r="E52" s="13" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4606,16 +4657,16 @@
       <c r="A53" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B53" s="8">
+      <c r="B53" s="7">
         <v>52</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E53" s="15" t="s">
+      <c r="E53" s="14" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4632,7 +4683,7 @@
       <c r="D54" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E54" s="14" t="s">
+      <c r="E54" s="13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4640,16 +4691,16 @@
       <c r="A55" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B55" s="8">
+      <c r="B55" s="7">
         <v>54</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E55" s="15" t="s">
+      <c r="E55" s="14" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4666,7 +4717,7 @@
       <c r="D56" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="14" t="s">
+      <c r="E56" s="13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4674,16 +4725,16 @@
       <c r="A57" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="8">
+      <c r="B57" s="7">
         <v>56</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E57" s="15" t="s">
+      <c r="E57" s="14" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4700,7 +4751,7 @@
       <c r="D58" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E58" s="14" t="s">
+      <c r="E58" s="13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4708,16 +4759,16 @@
       <c r="A59" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B59" s="8">
+      <c r="B59" s="7">
         <v>58</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="15" t="s">
+      <c r="E59" s="14" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4734,7 +4785,7 @@
       <c r="D60" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E60" s="14" t="s">
+      <c r="E60" s="13" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4742,16 +4793,16 @@
       <c r="A61" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B61" s="8">
+      <c r="B61" s="7">
         <v>60</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E61" s="15" t="s">
+      <c r="E61" s="14" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4768,7 +4819,7 @@
       <c r="D62" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E62" s="14" t="s">
+      <c r="E62" s="13" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4776,16 +4827,16 @@
       <c r="A63" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="8">
-        <v>62</v>
-      </c>
-      <c r="C63" s="8" t="s">
+      <c r="B63" s="7">
+        <v>62</v>
+      </c>
+      <c r="C63" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E63" s="15" t="s">
+      <c r="E63" s="14" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4802,7 +4853,7 @@
       <c r="D64" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E64" s="14" t="s">
+      <c r="E64" s="13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4810,16 +4861,16 @@
       <c r="A65" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B65" s="8">
+      <c r="B65" s="7">
         <v>64</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D65" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E65" s="15" t="s">
+      <c r="E65" s="14" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4836,7 +4887,7 @@
       <c r="D66" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E66" s="14" t="s">
+      <c r="E66" s="13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4844,16 +4895,16 @@
       <c r="A67" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B67" s="8">
+      <c r="B67" s="7">
         <v>66</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E67" s="15" t="s">
+      <c r="E67" s="14" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4870,7 +4921,7 @@
       <c r="D68" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E68" s="14" t="s">
+      <c r="E68" s="13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4878,16 +4929,16 @@
       <c r="A69" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B69" s="8">
+      <c r="B69" s="7">
         <v>68</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D69" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E69" s="15" t="s">
+      <c r="E69" s="14" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4904,7 +4955,7 @@
       <c r="D70" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E70" s="14" t="s">
+      <c r="E70" s="13" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4912,16 +4963,16 @@
       <c r="A71" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B71" s="8">
+      <c r="B71" s="7">
         <v>70</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D71" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="15" t="s">
+      <c r="E71" s="14" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4938,7 +4989,7 @@
       <c r="D72" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E72" s="14" t="s">
+      <c r="E72" s="13" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4946,16 +4997,16 @@
       <c r="A73" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B73" s="8">
+      <c r="B73" s="7">
         <v>72</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D73" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E73" s="15" t="s">
+      <c r="E73" s="14" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4972,7 +5023,7 @@
       <c r="D74" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E74" s="14" t="s">
+      <c r="E74" s="13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4980,16 +5031,16 @@
       <c r="A75" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B75" s="8">
+      <c r="B75" s="7">
         <v>74</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D75" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="15" t="s">
+      <c r="E75" s="14" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5006,7 +5057,7 @@
       <c r="D76" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E76" s="14" t="s">
+      <c r="E76" s="13" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5014,16 +5065,16 @@
       <c r="A77" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B77" s="8">
+      <c r="B77" s="7">
         <v>76</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="D77" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E77" s="15" t="s">
+      <c r="E77" s="14" t="s">
         <v>15</v>
       </c>
     </row>
@@ -5040,7 +5091,7 @@
       <c r="D78" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E78" s="14" t="s">
+      <c r="E78" s="13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -5048,16 +5099,16 @@
       <c r="A79" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B79" s="8">
+      <c r="B79" s="7">
         <v>78</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D79" s="8" t="s">
+      <c r="D79" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="15" t="s">
+      <c r="E79" s="14" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5074,7 +5125,7 @@
       <c r="D80" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E80" s="14" t="s">
+      <c r="E80" s="13" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5082,16 +5133,16 @@
       <c r="A81" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B81" s="8">
+      <c r="B81" s="7">
         <v>80</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D81" s="8" t="s">
+      <c r="D81" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E81" s="15" t="s">
+      <c r="E81" s="14" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5104,750 +5155,1150 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5D1529-1C77-EF45-9D6E-88D83B33AB1E}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E81"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
+      <c r="A2" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="14"/>
+      <c r="C2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8">
+      <c r="A3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="7">
         <v>2</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="15"/>
+      <c r="C3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
+      <c r="A4" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="B4" s="6">
         <v>3</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="14"/>
+      <c r="C4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8">
+      <c r="A5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="7">
         <v>4</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="15"/>
+      <c r="C5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
+      <c r="A6" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="B6" s="6">
         <v>5</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="14"/>
+      <c r="C6" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8">
+      <c r="A7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="7">
         <v>6</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="15"/>
+      <c r="C7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="B8" s="6">
         <v>7</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="14"/>
+      <c r="C8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8">
+      <c r="A9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="7">
         <v>8</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="16"/>
+      <c r="C9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
+      <c r="A10" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="B10" s="6">
         <v>9</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="14"/>
+      <c r="C10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8">
+      <c r="A11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="7">
         <v>10</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="15"/>
+      <c r="C11" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
+      <c r="A12" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="B12" s="6">
         <v>11</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="14"/>
+      <c r="C12" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8">
+      <c r="A13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="7">
         <v>12</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="15"/>
+      <c r="C13" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
+      <c r="A14" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="B14" s="6">
         <v>13</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="14"/>
+      <c r="C14" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8">
+      <c r="A15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="7">
         <v>14</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="15"/>
+      <c r="C15" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
+      <c r="A16" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="B16" s="6">
         <v>15</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="19"/>
+      <c r="C16" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8">
+      <c r="A17" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="7">
         <v>16</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="16"/>
+      <c r="C17" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
+      <c r="A18" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="B18" s="6">
         <v>17</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="14"/>
+      <c r="C18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8">
-        <v>18</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="15"/>
+      <c r="A19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="7">
+        <v>18</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
+      <c r="A20" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="B20" s="6">
         <v>19</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="14"/>
+      <c r="C20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8">
+      <c r="A21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="7">
         <v>20</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="15"/>
+      <c r="C21" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
+      <c r="A22" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="B22" s="6">
         <v>21</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="14"/>
+      <c r="C22" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8">
+      <c r="A23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="7">
         <v>22</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="15"/>
+      <c r="C23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
+      <c r="A24" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="B24" s="6">
         <v>23</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="14"/>
+      <c r="C24" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8">
+      <c r="A25" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="7">
         <v>24</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="15"/>
+      <c r="C25" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
+      <c r="A26" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="B26" s="6">
         <v>25</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="14"/>
+      <c r="C26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8">
+      <c r="A27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="7">
         <v>26</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="15"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="14"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
+      <c r="A28" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="B28" s="6">
         <v>27</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="14"/>
+      <c r="E28" s="13"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
-      <c r="B29" s="8">
+      <c r="A29" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="7">
         <v>28</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="15"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="14"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
+      <c r="A30" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="B30" s="6">
         <v>29</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="14"/>
+      <c r="E30" s="13"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
-      <c r="B31" s="8">
+      <c r="A31" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="7">
         <v>30</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="15"/>
+      <c r="C31" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="5"/>
+      <c r="A32" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="B32" s="6">
         <v>31</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="14"/>
+      <c r="E32" s="13"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="7"/>
-      <c r="B33" s="8">
+      <c r="A33" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="7">
         <v>32</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="15"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="14"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
+      <c r="A34" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="B34" s="6">
         <v>33</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="14"/>
+      <c r="C34" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
-      <c r="B35" s="8">
+      <c r="A35" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="7">
         <v>34</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="15"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="14"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="5"/>
+      <c r="A36" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="B36" s="6">
         <v>35</v>
       </c>
-      <c r="C36" s="9"/>
+      <c r="C36" s="8"/>
       <c r="D36" s="6"/>
-      <c r="E36" s="14"/>
+      <c r="E36" s="13"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="7"/>
-      <c r="B37" s="8">
+      <c r="A37" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="7">
         <v>36</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="15"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="14"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="5"/>
+      <c r="A38" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="B38" s="6">
         <v>37</v>
       </c>
-      <c r="C38" s="9"/>
+      <c r="C38" s="8"/>
       <c r="D38" s="6"/>
-      <c r="E38" s="14"/>
+      <c r="E38" s="13"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="7"/>
-      <c r="B39" s="8">
+      <c r="A39" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="7">
         <v>38</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="15"/>
+      <c r="C39" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="5"/>
+      <c r="A40" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="B40" s="6">
         <v>39</v>
       </c>
-      <c r="C40" s="9"/>
+      <c r="C40" s="8"/>
       <c r="D40" s="6"/>
-      <c r="E40" s="19"/>
+      <c r="E40" s="18"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="7"/>
-      <c r="B41" s="8">
+      <c r="A41" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="7">
         <v>40</v>
       </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="16"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="15"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="5"/>
+      <c r="A42" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="B42" s="6">
         <v>41</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="14"/>
+      <c r="C42" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="7"/>
-      <c r="B43" s="8">
+      <c r="A43" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" s="7">
         <v>42</v>
       </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="15"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="14"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="5"/>
+      <c r="A44" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="B44" s="6">
         <v>43</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
-      <c r="E44" s="14"/>
+      <c r="E44" s="13"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="7"/>
-      <c r="B45" s="8">
+      <c r="A45" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" s="7">
         <v>44</v>
       </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="15"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="14"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="5"/>
+      <c r="A46" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="B46" s="6">
         <v>45</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
-      <c r="E46" s="14"/>
+      <c r="E46" s="13"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="7"/>
-      <c r="B47" s="8">
+      <c r="A47" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="7">
         <v>46</v>
       </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="15"/>
+      <c r="C47" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="5"/>
+      <c r="A48" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="B48" s="6">
         <v>47</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
-      <c r="E48" s="14"/>
+      <c r="E48" s="13"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="7"/>
-      <c r="B49" s="8">
-        <v>48</v>
-      </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="15"/>
+      <c r="A49" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="7">
+        <v>48</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="14"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="5"/>
+      <c r="A50" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="B50" s="6">
         <v>49</v>
       </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="14"/>
+      <c r="C50" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="7"/>
-      <c r="B51" s="8">
+      <c r="A51" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" s="7">
         <v>50</v>
       </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="15"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="14"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="5"/>
+      <c r="A52" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="B52" s="6">
         <v>51</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
-      <c r="E52" s="14"/>
+      <c r="E52" s="13"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="7"/>
-      <c r="B53" s="8">
+      <c r="A53" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" s="7">
         <v>52</v>
       </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="15"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="14"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="5"/>
+      <c r="A54" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="B54" s="6">
         <v>53</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
-      <c r="E54" s="14"/>
+      <c r="E54" s="13"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="7"/>
-      <c r="B55" s="8">
+      <c r="A55" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" s="7">
         <v>54</v>
       </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="15"/>
+      <c r="C55" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="5"/>
+      <c r="A56" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="B56" s="6">
         <v>55</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
-      <c r="E56" s="14"/>
+      <c r="E56" s="13"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="7"/>
-      <c r="B57" s="8">
+      <c r="A57" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" s="7">
         <v>56</v>
       </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="15"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="14"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="5"/>
+      <c r="A58" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="B58" s="6">
         <v>57</v>
       </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="14"/>
+      <c r="C58" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="7"/>
-      <c r="B59" s="8">
+      <c r="A59" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" s="7">
         <v>58</v>
       </c>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="15"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="14"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="5"/>
+      <c r="A60" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="B60" s="6">
         <v>59</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
-      <c r="E60" s="14"/>
+      <c r="E60" s="13"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="7"/>
-      <c r="B61" s="8">
+      <c r="A61" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" s="7">
         <v>60</v>
       </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="15"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="14"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="5"/>
+      <c r="A62" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="B62" s="6">
         <v>61</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="14"/>
+      <c r="E62" s="13"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="7"/>
-      <c r="B63" s="8">
-        <v>62</v>
-      </c>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="15"/>
+      <c r="A63" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" s="7">
+        <v>62</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="5"/>
+      <c r="A64" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="B64" s="6">
         <v>63</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
-      <c r="E64" s="14"/>
+      <c r="E64" s="13"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="7"/>
-      <c r="B65" s="8">
+      <c r="A65" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" s="7">
         <v>64</v>
       </c>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="15"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="14"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="5"/>
+      <c r="A66" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="B66" s="6">
         <v>65</v>
       </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="14"/>
+      <c r="C66" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="7"/>
-      <c r="B67" s="8">
+      <c r="A67" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" s="7">
         <v>66</v>
       </c>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="15"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="14"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="5"/>
+      <c r="A68" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="B68" s="6">
         <v>67</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
-      <c r="E68" s="14"/>
+      <c r="E68" s="13"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="7"/>
-      <c r="B69" s="8">
+      <c r="A69" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B69" s="7">
         <v>68</v>
       </c>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="15"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="14"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="5"/>
+      <c r="A70" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="B70" s="6">
         <v>69</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
-      <c r="E70" s="14"/>
+      <c r="E70" s="13"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="7"/>
-      <c r="B71" s="8">
+      <c r="A71" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7">
         <v>70</v>
       </c>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="15"/>
+      <c r="C71" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="5"/>
+      <c r="A72" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="B72" s="6">
         <v>71</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
-      <c r="E72" s="14"/>
+      <c r="E72" s="13"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="7"/>
-      <c r="B73" s="8">
+      <c r="A73" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B73" s="7">
         <v>72</v>
       </c>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="15"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="14"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="5"/>
+      <c r="A74" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="B74" s="6">
         <v>73</v>
       </c>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="14"/>
+      <c r="C74" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="7"/>
-      <c r="B75" s="8">
+      <c r="A75" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B75" s="7">
         <v>74</v>
       </c>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="15"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="14"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="5"/>
+      <c r="A76" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="B76" s="6">
         <v>75</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
-      <c r="E76" s="14"/>
+      <c r="E76" s="13"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="7"/>
-      <c r="B77" s="8">
+      <c r="A77" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B77" s="7">
         <v>76</v>
       </c>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="15"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="14"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="5"/>
+      <c r="A78" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="B78" s="6">
         <v>77</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
-      <c r="E78" s="14"/>
+      <c r="E78" s="13"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="7"/>
-      <c r="B79" s="8">
+      <c r="A79" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B79" s="7">
         <v>78</v>
       </c>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="15"/>
+      <c r="C79" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="5"/>
+      <c r="A80" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="B80" s="6">
         <v>79</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
-      <c r="E80" s="14"/>
+      <c r="E80" s="13"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="7"/>
-      <c r="B81" s="8">
+      <c r="A81" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B81" s="7">
         <v>80</v>
       </c>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="15"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57C7B98-5D79-034B-A003-32F930A1C853}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>